--- a/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
+++ b/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
@@ -2,7 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\RS_CRM\testData\SMS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
@@ -10,8 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Sudhakar Rsoft - Personal View" guid="{65A6858D-7219-405D-B85D-01E367F321A3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1030" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="172">
   <si>
     <t>ModuleName</t>
   </si>
@@ -132,9 +140,6 @@
     <t>sudhakar@rsoft.in</t>
   </si>
   <si>
-    <t>Welcome to automation world</t>
-  </si>
-  <si>
     <t>Exec_Condition</t>
   </si>
   <si>
@@ -156,9 +161,6 @@
     <t>Enquiry_Category</t>
   </si>
   <si>
-    <t>Urgent</t>
-  </si>
-  <si>
     <t>+65</t>
   </si>
   <si>
@@ -177,15 +179,6 @@
     <t>TestNames</t>
   </si>
   <si>
-    <t>User1_Notify_Count</t>
-  </si>
-  <si>
-    <t>User2_Notify_Count</t>
-  </si>
-  <si>
-    <t>User3_Notify_Count</t>
-  </si>
-  <si>
     <t>RSoft World-Class CRM Software (Customer Relationship Management) solution has been helping all kinds of small and medium businesses to organise, automate and improve their business. Our 15+ years of experience in Sales and Marketing. RSoft makes your business run transparently and intelligently which projects your brand image and win your customers satisfaction. RSoft is way ahead of other CRM's with its new generation features.</t>
   </si>
   <si>
@@ -195,27 +188,9 @@
     <t>User3RecId</t>
   </si>
   <si>
-    <t>WF3_Every_time_record_modifies</t>
-  </si>
-  <si>
-    <t>one,two</t>
-  </si>
-  <si>
     <t>Dr.</t>
   </si>
   <si>
-    <t>welcome@test.com</t>
-  </si>
-  <si>
-    <t>Every time the record is modified</t>
-  </si>
-  <si>
-    <t>EveryTimeTrigger</t>
-  </si>
-  <si>
-    <t>Send notification</t>
-  </si>
-  <si>
     <t>CRMNotification</t>
   </si>
   <si>
@@ -225,70 +200,356 @@
     <t>CRMModOnlyonFirstSave</t>
   </si>
   <si>
-    <t>2023-12-28</t>
+    <t>EditRecText</t>
+  </si>
+  <si>
+    <t>IndividualTextEdited</t>
+  </si>
+  <si>
+    <t>User1RecId</t>
+  </si>
+  <si>
+    <t>Lead_PN</t>
+  </si>
+  <si>
+    <t>Lead_Email</t>
+  </si>
+  <si>
+    <t>Lead_Text</t>
+  </si>
+  <si>
+    <t>Sales_PN</t>
+  </si>
+  <si>
+    <t>Sales_Email</t>
+  </si>
+  <si>
+    <t>Lead_PN_Prefix</t>
+  </si>
+  <si>
+    <t>+91</t>
+  </si>
+  <si>
+    <t>Sales_PN_Prefix</t>
+  </si>
+  <si>
+    <t>Sample Text</t>
+  </si>
+  <si>
+    <t>Send SMS</t>
+  </si>
+  <si>
+    <t>User1_MessageId</t>
+  </si>
+  <si>
+    <t>User2_MessageId</t>
+  </si>
+  <si>
+    <t>User3_MessageId</t>
+  </si>
+  <si>
+    <t>SMSTemplate_Msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hi, Thanks for contacting RSoft. Test Automation ensures quality of the app and maximum test coverage and validation. </t>
+  </si>
+  <si>
+    <t>WF5_Send_SMS_ETR_S</t>
+  </si>
+  <si>
+    <t>Every time the record is save</t>
+  </si>
+  <si>
+    <t>SMSTriiggerETRS</t>
+  </si>
+  <si>
+    <t>testEnquiry@test.com</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>1419193072</t>
+  </si>
+  <si>
+    <t>Testing ETRS</t>
+  </si>
+  <si>
+    <t>Ordinary</t>
+  </si>
+  <si>
+    <t>Lead@rsoft.in</t>
+  </si>
+  <si>
+    <t>Sales@rsoft.in</t>
+  </si>
+  <si>
+    <t>0686466384</t>
+  </si>
+  <si>
+    <t>7906275150</t>
+  </si>
+  <si>
+    <t>0547232792</t>
+  </si>
+  <si>
+    <t>2036388850</t>
+  </si>
+  <si>
+    <t>2023-12-29</t>
   </si>
   <si>
     <t>02:35PM</t>
   </si>
   <si>
-    <t>EditRecText</t>
-  </si>
-  <si>
-    <t>IndividualTextEdited</t>
-  </si>
-  <si>
-    <t>User1RecId</t>
+    <t>2023-12-29 04:00 PM</t>
+  </si>
+  <si>
+    <t>0185600405</t>
+  </si>
+  <si>
+    <t>7969706308</t>
+  </si>
+  <si>
+    <t>3740144222</t>
+  </si>
+  <si>
+    <t>0788894613</t>
+  </si>
+  <si>
+    <t>6395626704</t>
+  </si>
+  <si>
+    <t>4281445481</t>
+  </si>
+  <si>
+    <t>0469786972</t>
+  </si>
+  <si>
+    <t>9535248290</t>
+  </si>
+  <si>
+    <t>2023-12-29 05:00 PM</t>
+  </si>
+  <si>
+    <t>8123964417</t>
+  </si>
+  <si>
+    <t>3916073422</t>
+  </si>
+  <si>
+    <t>1834465326</t>
+  </si>
+  <si>
+    <t>4302630256</t>
+  </si>
+  <si>
+    <t>3868951406</t>
+  </si>
+  <si>
+    <t>5056386384</t>
+  </si>
+  <si>
+    <t>0564045359</t>
+  </si>
+  <si>
+    <t>2923688398</t>
+  </si>
+  <si>
+    <t>1707653217</t>
+  </si>
+  <si>
+    <t>2156859640</t>
+  </si>
+  <si>
+    <t>0565259829</t>
+  </si>
+  <si>
+    <t>4385613416</t>
+  </si>
+  <si>
+    <t>9561695117</t>
+  </si>
+  <si>
+    <t>2472975633</t>
+  </si>
+  <si>
+    <t>3468099835</t>
+  </si>
+  <si>
+    <t>0166040091</t>
+  </si>
+  <si>
+    <t>2023-12-29 06:00 PM</t>
+  </si>
+  <si>
+    <t>9720858452</t>
+  </si>
+  <si>
+    <t>4816628440</t>
+  </si>
+  <si>
+    <t>5099820135</t>
+  </si>
+  <si>
+    <t>1596971249</t>
+  </si>
+  <si>
+    <t>9501875615</t>
+  </si>
+  <si>
+    <t>1860373785</t>
+  </si>
+  <si>
+    <t>2272123189</t>
+  </si>
+  <si>
+    <t>6563697774</t>
+  </si>
+  <si>
+    <t>4690497310</t>
+  </si>
+  <si>
+    <t>7636250931</t>
+  </si>
+  <si>
+    <t>1953007717</t>
+  </si>
+  <si>
+    <t>3787100403</t>
+  </si>
+  <si>
+    <t>2023-12-30</t>
+  </si>
+  <si>
+    <t>2023-12-30 12:00 PM</t>
+  </si>
+  <si>
+    <t>0926756377</t>
+  </si>
+  <si>
+    <t>6962711459</t>
+  </si>
+  <si>
+    <t>2696460040</t>
+  </si>
+  <si>
+    <t>8988648856</t>
+  </si>
+  <si>
+    <t>4391138205</t>
+  </si>
+  <si>
+    <t>4698566766</t>
+  </si>
+  <si>
+    <t>8704592875</t>
+  </si>
+  <si>
+    <t>5732484661</t>
+  </si>
+  <si>
+    <t>2023-12-30 02:00 PM</t>
+  </si>
+  <si>
+    <t>4118520058</t>
+  </si>
+  <si>
+    <t>5596475088</t>
+  </si>
+  <si>
+    <t>7683383792</t>
+  </si>
+  <si>
+    <t>0981525239</t>
+  </si>
+  <si>
+    <t>8171575156</t>
+  </si>
+  <si>
+    <t>9564990614</t>
+  </si>
+  <si>
+    <t>1664767139</t>
+  </si>
+  <si>
+    <t>6158398104</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2023-12-28 12:00 PM</t>
-  </si>
-  <si>
-    <t>91775</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Lead_PN</t>
-  </si>
-  <si>
-    <t>Lead_Email</t>
-  </si>
-  <si>
-    <t>Lead_Text</t>
-  </si>
-  <si>
-    <t>Sales_PN</t>
-  </si>
-  <si>
-    <t>Sales_Email</t>
-  </si>
-  <si>
-    <t>Lead_PN_Prefix</t>
-  </si>
-  <si>
-    <t>+91</t>
-  </si>
-  <si>
-    <t>Sales_PN_Prefix</t>
-  </si>
-  <si>
-    <t>testet@rsoft.in</t>
-  </si>
-  <si>
-    <t>Sample Text</t>
+    <t>9855965594</t>
+  </si>
+  <si>
+    <t>3117634257</t>
+  </si>
+  <si>
+    <t>9156842392</t>
+  </si>
+  <si>
+    <t>4906550884</t>
+  </si>
+  <si>
+    <t>5672497036</t>
+  </si>
+  <si>
+    <t>4890492234</t>
+  </si>
+  <si>
+    <t>6549521742</t>
+  </si>
+  <si>
+    <t>1196095380</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7425536987</t>
+  </si>
+  <si>
+    <t>6698430909</t>
+  </si>
+  <si>
+    <t>5253227182</t>
+  </si>
+  <si>
+    <t>8167068643</t>
+  </si>
+  <si>
+    <t>0855114008</t>
+  </si>
+  <si>
+    <t>1728984798</t>
+  </si>
+  <si>
+    <t>7144298918</t>
+  </si>
+  <si>
+    <t>7404163749</t>
+  </si>
+  <si>
+    <t>7134669578</t>
+  </si>
+  <si>
+    <t>3900686622</t>
+  </si>
+  <si>
+    <t>4399936194</t>
+  </si>
+  <si>
+    <t>3830231843</t>
+  </si>
+  <si>
+    <t>2023-12-30 03:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -327,11 +588,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -348,6 +612,218 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B87DBA14-749E-47F3-A686-A95F8B480B7A}" diskRevisions="1" revisionId="19" version="3">
+  <header guid="{6A0EF4ED-47BD-46C1-93FD-8103A2945C43}" dateTime="2023-12-29T12:47:43" maxSheetId="2" userName="Sudhakar Rsoft" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DB03B530-205F-483E-81D0-51D2DF84CEC4}" dateTime="2023-12-29T15:39:03" maxSheetId="2" userName="Sudhakar Rsoft" r:id="rId2" minRId="1" maxRId="7">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B87DBA14-749E-47F3-A686-A95F8B480B7A}" dateTime="2023-12-29T16:38:45" maxSheetId="2" userName="Sudhakar Rsoft" r:id="rId3" minRId="8" maxRId="19">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>1862306591</t>
+      </is>
+    </oc>
+    <nc r="F2"/>
+  </rcc>
+  <rcc rId="2" sId="1">
+    <oc r="I2" t="inlineStr">
+      <is>
+        <t>one,two,three,four,five</t>
+      </is>
+    </oc>
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>one</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="1">
+    <oc r="N2" t="inlineStr">
+      <is>
+        <t>2023-12-29</t>
+      </is>
+    </oc>
+    <nc r="N2"/>
+  </rcc>
+  <rcc rId="4" sId="1">
+    <oc r="O2" t="inlineStr">
+      <is>
+        <t>02:35PM</t>
+      </is>
+    </oc>
+    <nc r="O2"/>
+  </rcc>
+  <rcc rId="5" sId="1">
+    <oc r="P2" t="inlineStr">
+      <is>
+        <t>2023-12-29 02:00 PM</t>
+      </is>
+    </oc>
+    <nc r="P2"/>
+  </rcc>
+  <rcc rId="6" sId="1">
+    <oc r="AE2" t="inlineStr">
+      <is>
+        <t>6644960397</t>
+      </is>
+    </oc>
+    <nc r="AE2"/>
+  </rcc>
+  <rcc rId="7" sId="1">
+    <oc r="AT2" t="inlineStr">
+      <is>
+        <t>1216796448</t>
+      </is>
+    </oc>
+    <nc r="AT2"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="8" sId="1">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Welcome to CRM Automation ETRS</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Testing ETRS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="1">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>4858322270</t>
+      </is>
+    </oc>
+    <nc r="F2"/>
+  </rcc>
+  <rcc rId="10" sId="1">
+    <oc r="N2" t="inlineStr">
+      <is>
+        <t>2023-12-29</t>
+      </is>
+    </oc>
+    <nc r="N2"/>
+  </rcc>
+  <rcc rId="11" sId="1">
+    <oc r="O2" t="inlineStr">
+      <is>
+        <t>02:35PM</t>
+      </is>
+    </oc>
+    <nc r="O2"/>
+  </rcc>
+  <rcc rId="12" sId="1">
+    <oc r="P2" t="inlineStr">
+      <is>
+        <t>2023-12-29 03:00 PM</t>
+      </is>
+    </oc>
+    <nc r="P2"/>
+  </rcc>
+  <rcc rId="13" sId="1">
+    <oc r="U2">
+      <v>11111111111</v>
+    </oc>
+    <nc r="U2">
+      <v>33333333333</v>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="1">
+    <oc r="AC2" t="inlineStr">
+      <is>
+        <t>2023-12-29</t>
+      </is>
+    </oc>
+    <nc r="AC2"/>
+  </rcc>
+  <rcc rId="15" sId="1">
+    <oc r="AE2" t="inlineStr">
+      <is>
+        <t>3989794841</t>
+      </is>
+    </oc>
+    <nc r="AE2"/>
+  </rcc>
+  <rcc rId="16" sId="1">
+    <oc r="AF2" t="inlineStr">
+      <is>
+        <t>Urgent</t>
+      </is>
+    </oc>
+    <nc r="AF2" t="inlineStr">
+      <is>
+        <t>Ordinary</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="1">
+    <oc r="AT2" t="inlineStr">
+      <is>
+        <t>0691419109</t>
+      </is>
+    </oc>
+    <nc r="AT2"/>
+  </rcc>
+  <rcc rId="18" sId="1">
+    <oc r="AU2" t="inlineStr">
+      <is>
+        <t>sudhakar@rsoft.in</t>
+      </is>
+    </oc>
+    <nc r="AU2" t="inlineStr">
+      <is>
+        <t>Lead@rsoft.in</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="1">
+    <oc r="AY2" t="inlineStr">
+      <is>
+        <t>testet@rsoft.in</t>
+      </is>
+    </oc>
+    <nc r="AY2" t="inlineStr">
+      <is>
+        <t>Sales@rsoft.in</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="delete"/>
+  <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,371 +1089,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AV3" sqref="AV3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.453125" customWidth="1"/>
-    <col min="33" max="33" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="30.453125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1796875"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.7265625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.7265625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
+    <col min="32" max="32" customWidth="true" width="20.453125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.0"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="45" max="45" customWidth="true" width="18.0"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="10.26953125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="52" max="52" customWidth="true" width="25.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="AB1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AD1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AF1" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="Y1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AH1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="AI1" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="AL1" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="AM1" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="AN1" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="AO1" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="AP1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="AQ1" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="AR1" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AS1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="AT1" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="AU1" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="AV1" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="AW1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="AX1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="AY1" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="AZ1" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2">
-        <v>3333333333</v>
+      <c r="F2" t="s" s="0">
+        <v>167</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2">
-        <v>44444444444</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="U2">
-        <v>11111111111</v>
+      <c r="U2" s="0">
+        <v>33333333333</v>
       </c>
       <c r="V2" s="3">
         <v>8000</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="AB2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AC2" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="AF2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="AI2" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="AK2" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="AQ2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="AR2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT2" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2">
-        <v>7777777777</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AX2" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AT2">
-        <v>7708674417</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX2">
-        <v>3333333333</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>86</v>
+      <c r="AZ2" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <hyperlinks>
     <hyperlink ref="W2" r:id="rId1"/>
     <hyperlink ref="Z2" r:id="rId2"/>
     <hyperlink ref="G2" r:id="rId3"/>
-    <hyperlink ref="AU2" r:id="rId4"/>
-    <hyperlink ref="AY2" r:id="rId5"/>
+    <hyperlink ref="AU2" r:id="rId4" display="sudhakar@rsoft.in"/>
+    <hyperlink ref="AY2" r:id="rId5" display="testet@rsoft.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
+++ b/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>ModuleName</t>
   </si>
@@ -269,9 +269,6 @@
     <t>one</t>
   </si>
   <si>
-    <t>1419193072</t>
-  </si>
-  <si>
     <t>Testing ETRS</t>
   </si>
   <si>
@@ -284,265 +281,49 @@
     <t>Sales@rsoft.in</t>
   </si>
   <si>
-    <t>0686466384</t>
-  </si>
-  <si>
-    <t>7906275150</t>
-  </si>
-  <si>
-    <t>0547232792</t>
-  </si>
-  <si>
-    <t>2036388850</t>
-  </si>
-  <si>
-    <t>2023-12-29</t>
-  </si>
-  <si>
     <t>02:35PM</t>
   </si>
   <si>
-    <t>2023-12-29 04:00 PM</t>
-  </si>
-  <si>
-    <t>0185600405</t>
-  </si>
-  <si>
-    <t>7969706308</t>
-  </si>
-  <si>
-    <t>3740144222</t>
-  </si>
-  <si>
-    <t>0788894613</t>
-  </si>
-  <si>
-    <t>6395626704</t>
-  </si>
-  <si>
-    <t>4281445481</t>
-  </si>
-  <si>
-    <t>0469786972</t>
-  </si>
-  <si>
-    <t>9535248290</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00 PM</t>
-  </si>
-  <si>
-    <t>8123964417</t>
-  </si>
-  <si>
-    <t>3916073422</t>
-  </si>
-  <si>
-    <t>1834465326</t>
-  </si>
-  <si>
-    <t>4302630256</t>
-  </si>
-  <si>
-    <t>3868951406</t>
-  </si>
-  <si>
-    <t>5056386384</t>
-  </si>
-  <si>
-    <t>0564045359</t>
-  </si>
-  <si>
-    <t>2923688398</t>
-  </si>
-  <si>
-    <t>1707653217</t>
-  </si>
-  <si>
-    <t>2156859640</t>
-  </si>
-  <si>
-    <t>0565259829</t>
-  </si>
-  <si>
-    <t>4385613416</t>
-  </si>
-  <si>
-    <t>9561695117</t>
-  </si>
-  <si>
-    <t>2472975633</t>
-  </si>
-  <si>
-    <t>3468099835</t>
-  </si>
-  <si>
-    <t>0166040091</t>
-  </si>
-  <si>
-    <t>2023-12-29 06:00 PM</t>
-  </si>
-  <si>
-    <t>9720858452</t>
-  </si>
-  <si>
-    <t>4816628440</t>
-  </si>
-  <si>
-    <t>5099820135</t>
-  </si>
-  <si>
-    <t>1596971249</t>
-  </si>
-  <si>
-    <t>9501875615</t>
-  </si>
-  <si>
-    <t>1860373785</t>
-  </si>
-  <si>
-    <t>2272123189</t>
-  </si>
-  <si>
-    <t>6563697774</t>
-  </si>
-  <si>
-    <t>4690497310</t>
-  </si>
-  <si>
-    <t>7636250931</t>
-  </si>
-  <si>
-    <t>1953007717</t>
-  </si>
-  <si>
-    <t>3787100403</t>
-  </si>
-  <si>
     <t>2023-12-30</t>
   </si>
   <si>
-    <t>2023-12-30 12:00 PM</t>
-  </si>
-  <si>
-    <t>0926756377</t>
-  </si>
-  <si>
-    <t>6962711459</t>
-  </si>
-  <si>
-    <t>2696460040</t>
-  </si>
-  <si>
-    <t>8988648856</t>
-  </si>
-  <si>
-    <t>4391138205</t>
-  </si>
-  <si>
-    <t>4698566766</t>
-  </si>
-  <si>
-    <t>8704592875</t>
-  </si>
-  <si>
-    <t>5732484661</t>
-  </si>
-  <si>
-    <t>2023-12-30 02:00 PM</t>
-  </si>
-  <si>
-    <t>4118520058</t>
-  </si>
-  <si>
-    <t>5596475088</t>
-  </si>
-  <si>
-    <t>7683383792</t>
-  </si>
-  <si>
-    <t>0981525239</t>
-  </si>
-  <si>
-    <t>8171575156</t>
-  </si>
-  <si>
-    <t>9564990614</t>
-  </si>
-  <si>
-    <t>1664767139</t>
-  </si>
-  <si>
-    <t>6158398104</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>9855965594</t>
-  </si>
-  <si>
-    <t>3117634257</t>
-  </si>
-  <si>
-    <t>9156842392</t>
-  </si>
-  <si>
-    <t>4906550884</t>
-  </si>
-  <si>
-    <t>5672497036</t>
-  </si>
-  <si>
-    <t>4890492234</t>
-  </si>
-  <si>
-    <t>6549521742</t>
-  </si>
-  <si>
-    <t>1196095380</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7425536987</t>
-  </si>
-  <si>
-    <t>6698430909</t>
-  </si>
-  <si>
-    <t>5253227182</t>
-  </si>
-  <si>
-    <t>8167068643</t>
-  </si>
-  <si>
-    <t>0855114008</t>
-  </si>
-  <si>
-    <t>1728984798</t>
-  </si>
-  <si>
-    <t>7144298918</t>
-  </si>
-  <si>
-    <t>7404163749</t>
-  </si>
-  <si>
-    <t>7134669578</t>
-  </si>
-  <si>
-    <t>3900686622</t>
-  </si>
-  <si>
-    <t>4399936194</t>
-  </si>
-  <si>
-    <t>3830231843</t>
-  </si>
-  <si>
     <t>2023-12-30 03:00 PM</t>
+  </si>
+  <si>
+    <t>2809319890</t>
+  </si>
+  <si>
+    <t>1975817709</t>
+  </si>
+  <si>
+    <t>3606855737</t>
+  </si>
+  <si>
+    <t>3112427282</t>
+  </si>
+  <si>
+    <t>7359764723</t>
+  </si>
+  <si>
+    <t>5492530366</t>
+  </si>
+  <si>
+    <t>0288005030</t>
+  </si>
+  <si>
+    <t>9205491779</t>
+  </si>
+  <si>
+    <t>2024-01-03</t>
+  </si>
+  <si>
+    <t>2024-01-03 11:00 AM</t>
+  </si>
+  <si>
+    <t>2024-01-03 12:00 PM</t>
   </si>
 </sst>
 </file>
@@ -615,7 +396,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B87DBA14-749E-47F3-A686-A95F8B480B7A}" diskRevisions="1" revisionId="19" version="3">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FD802A99-CED2-40F3-BFD2-595535B7822E}" diskRevisions="1" revisionId="19" version="4">
   <header guid="{6A0EF4ED-47BD-46C1-93FD-8103A2945C43}" dateTime="2023-12-29T12:47:43" maxSheetId="2" userName="Sudhakar Rsoft" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -631,6 +412,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{FD802A99-CED2-40F3-BFD2-595535B7822E}" dateTime="2024-01-03T11:57:59" maxSheetId="2" userName="Sudhakar Rsoft" r:id="rId4">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -817,6 +603,13 @@
       </is>
     </nc>
   </rcc>
+  <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="delete"/>
+  <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="delete"/>
   <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="add"/>
 </revisions>
@@ -1091,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1310,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>36</v>
@@ -1340,13 +1133,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="R2" t="s" s="0">
         <v>47</v>
@@ -1382,16 +1175,16 @@
         <v>50</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AE2" t="s" s="0">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="AF2" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="s" s="0">
         <v>76</v>
@@ -1403,7 +1196,7 @@
         <v>77</v>
       </c>
       <c r="AK2" t="s" s="0">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="AQ2" t="s" s="0">
         <v>54</v>
@@ -1415,10 +1208,10 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV2" t="s" s="0">
         <v>68</v>
@@ -1427,10 +1220,10 @@
         <v>45</v>
       </c>
       <c r="AX2" t="s" s="0">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>74</v>
@@ -1438,8 +1231,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="AB1">
+      <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
+++ b/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="158">
   <si>
     <t>ModuleName</t>
   </si>
@@ -110,9 +113,6 @@
     <t>ON</t>
   </si>
   <si>
-    <t>Sudhakar</t>
-  </si>
-  <si>
     <t>Enquiry_Name</t>
   </si>
   <si>
@@ -134,12 +134,6 @@
     <t>Enq_PN_Prefix</t>
   </si>
   <si>
-    <t>Enquired about real estate</t>
-  </si>
-  <si>
-    <t>sudhakar@rsoft.in</t>
-  </si>
-  <si>
     <t>Exec_Condition</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>http://www.google.com/</t>
   </si>
   <si>
-    <t>TestNames</t>
-  </si>
-  <si>
     <t>RSoft World-Class CRM Software (Customer Relationship Management) solution has been helping all kinds of small and medium businesses to organise, automate and improve their business. Our 15+ years of experience in Sales and Marketing. RSoft makes your business run transparently and intelligently which projects your brand image and win your customers satisfaction. RSoft is way ahead of other CRM's with its new generation features.</t>
   </si>
   <si>
@@ -233,9 +224,6 @@
     <t>Sales_PN_Prefix</t>
   </si>
   <si>
-    <t>Sample Text</t>
-  </si>
-  <si>
     <t>Send SMS</t>
   </si>
   <si>
@@ -263,67 +251,259 @@
     <t>SMSTriiggerETRS</t>
   </si>
   <si>
-    <t>testEnquiry@test.com</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>Testing ETRS</t>
-  </si>
-  <si>
     <t>Ordinary</t>
   </si>
   <si>
-    <t>Lead@rsoft.in</t>
-  </si>
-  <si>
-    <t>Sales@rsoft.in</t>
-  </si>
-  <si>
     <t>02:35PM</t>
   </si>
   <si>
-    <t>2023-12-30</t>
+    <t>2024-01-03</t>
+  </si>
+  <si>
+    <t>AddNew@rsoft.in</t>
+  </si>
+  <si>
+    <t>2024-01-03 05:00 PM</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Urgent</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>Add New Text</t>
+  </si>
+  <si>
+    <t>Summary Add Text</t>
+  </si>
+  <si>
+    <t>Duplicate Text</t>
+  </si>
+  <si>
+    <t>Edit Text</t>
+  </si>
+  <si>
+    <t>SummaryAdd@rsoft.in</t>
+  </si>
+  <si>
+    <t>Duplicate@rsoft.in</t>
+  </si>
+  <si>
+    <t>Duplicatechange@rsoft.in</t>
+  </si>
+  <si>
+    <t>Madras9</t>
+  </si>
+  <si>
+    <t>New Value1</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Sathyan</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Selvi</t>
+  </si>
+  <si>
+    <t>https://www.selenium.dev/</t>
+  </si>
+  <si>
+    <t>https://mvnrepository.com/</t>
+  </si>
+  <si>
+    <t>https://www.rsoft.in/</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>Sujay</t>
+  </si>
+  <si>
+    <t>EditChangeEnquiry@rsoft.in</t>
+  </si>
+  <si>
+    <t>DuplicateEnquiry@crm.in</t>
+  </si>
+  <si>
+    <t>SummaryAddEnquiry@rsoft.in</t>
+  </si>
+  <si>
+    <t>AddNewEnquiry@gmail.com</t>
+  </si>
+  <si>
+    <t>Enquiry about Chatbot</t>
+  </si>
+  <si>
+    <t>Enquiry about Surveyform</t>
+  </si>
+  <si>
+    <t>Enquiry about CRM</t>
+  </si>
+  <si>
+    <t>Enquiry about MobileApp</t>
+  </si>
+  <si>
+    <t>AddNewLead@gmail.com</t>
+  </si>
+  <si>
+    <t>SummaryAddLead@gmail.com</t>
+  </si>
+  <si>
+    <t>DuplicateLead@gmail.com</t>
+  </si>
+  <si>
+    <t>EditChangeLead@gmail.com</t>
+  </si>
+  <si>
+    <t>Lead about MobileApp</t>
+  </si>
+  <si>
+    <t>Lead about CRM</t>
+  </si>
+  <si>
+    <t>Lead about Surveyform</t>
+  </si>
+  <si>
+    <t>Lead about Chatbot</t>
+  </si>
+  <si>
+    <t>AddNewSales@gmail.com</t>
+  </si>
+  <si>
+    <t>SummaryAddSales@gmail.com</t>
+  </si>
+  <si>
+    <t>DuplicateSales@gmail.com</t>
+  </si>
+  <si>
+    <t>EditChangeSales@gmail.com</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2023-12-30 03:00 PM</t>
-  </si>
-  <si>
-    <t>2809319890</t>
-  </si>
-  <si>
-    <t>1975817709</t>
-  </si>
-  <si>
-    <t>3606855737</t>
-  </si>
-  <si>
-    <t>3112427282</t>
-  </si>
-  <si>
-    <t>7359764723</t>
-  </si>
-  <si>
-    <t>5492530366</t>
-  </si>
-  <si>
-    <t>0288005030</t>
-  </si>
-  <si>
-    <t>9205491779</t>
-  </si>
-  <si>
-    <t>2024-01-03</t>
-  </si>
-  <si>
-    <t>2024-01-03 11:00 AM</t>
-  </si>
-  <si>
-    <t>2024-01-03 12:00 PM</t>
+    <t>2024-01-04</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>6518169632</t>
+  </si>
+  <si>
+    <t>7954212669</t>
+  </si>
+  <si>
+    <t>6887216707</t>
+  </si>
+  <si>
+    <t>1919943953</t>
+  </si>
+  <si>
+    <t>2024-01-04 06:00 PM</t>
+  </si>
+  <si>
+    <t>9283471332</t>
+  </si>
+  <si>
+    <t>4343014239</t>
+  </si>
+  <si>
+    <t>2272468729</t>
+  </si>
+  <si>
+    <t>7616863550</t>
+  </si>
+  <si>
+    <t>8058629509</t>
+  </si>
+  <si>
+    <t>6477939991</t>
+  </si>
+  <si>
+    <t>2700046975</t>
+  </si>
+  <si>
+    <t>3947424056</t>
+  </si>
+  <si>
+    <t>4897294512</t>
+  </si>
+  <si>
+    <t>2429093846</t>
+  </si>
+  <si>
+    <t>3730501090</t>
+  </si>
+  <si>
+    <t>4533527006</t>
+  </si>
+  <si>
+    <t>0863988599</t>
+  </si>
+  <si>
+    <t>9130328203</t>
+  </si>
+  <si>
+    <t>2097132337</t>
+  </si>
+  <si>
+    <t>2439395860</t>
   </si>
 </sst>
 </file>
@@ -396,7 +576,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FD802A99-CED2-40F3-BFD2-595535B7822E}" diskRevisions="1" revisionId="19" version="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0E33FD6D-3733-401F-ABD5-832E6309B3FE}" diskRevisions="1" revisionId="401" version="12">
   <header guid="{6A0EF4ED-47BD-46C1-93FD-8103A2945C43}" dateTime="2023-12-29T12:47:43" maxSheetId="2" userName="Sudhakar Rsoft" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -417,11 +597,478 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{AB9D7069-EFCD-4C1D-BEFA-3F90B6F86F3B}" dateTime="2024-01-04T15:55:33" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId5" minRId="20" maxRId="319">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B5B576B6-B135-4364-9D2C-84BDC1CAC6A5}" dateTime="2024-01-04T15:56:31" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId6" minRId="320">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C7271854-70DB-40F5-B6F2-E690416C9904}" dateTime="2024-01-04T16:03:52" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId7" minRId="321" maxRId="352">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{879B993D-74DB-4E82-A2EC-3404BF7B0B7C}" dateTime="2024-01-04T16:05:16" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId8" minRId="353" maxRId="359">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DEBAD748-23EC-49A8-AD2A-17DD6892A2AD}" dateTime="2024-01-04T16:06:44" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId9" minRId="360" maxRId="366">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4AB284BF-11C7-4279-974E-0E73CBF6C2CF}" dateTime="2024-01-04T17:32:17" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId10" minRId="367" maxRId="396">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{49472724-213E-49A4-9206-458554A753D5}" dateTime="2024-01-04T17:47:33" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId11" minRId="397">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0E33FD6D-3733-401F-ABD5-832E6309B3FE}" dateTime="2024-01-04T18:29:23" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId12" minRId="398" maxRId="401">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="367" sId="4">
+    <oc r="Z2" t="inlineStr">
+      <is>
+        <t>EditEnquiry@test.com</t>
+      </is>
+    </oc>
+    <nc r="Z2" t="inlineStr">
+      <is>
+        <t>EditChangeEnquiry@rsoft.in</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="368" sId="3">
+    <oc r="Z2" t="inlineStr">
+      <is>
+        <t>DuplcateEqnury@gmail.com</t>
+      </is>
+    </oc>
+    <nc r="Z2" t="inlineStr">
+      <is>
+        <t>DuplicateEnquiry@crm.in</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="369" sId="2">
+    <oc r="Z2" t="inlineStr">
+      <is>
+        <t>secondadd@gmail.com</t>
+      </is>
+    </oc>
+    <nc r="Z2" t="inlineStr">
+      <is>
+        <t>SummaryAddEnquiry@rsoft.in</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="370" sId="1">
+    <oc r="Z2" t="inlineStr">
+      <is>
+        <t>testEnquiry@test.com</t>
+      </is>
+    </oc>
+    <nc r="Z2" t="inlineStr">
+      <is>
+        <t>AddNewEnquiry@gmail.com</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="371" sId="1">
+    <oc r="AA2" t="inlineStr">
+      <is>
+        <t>Enquired about real estate</t>
+      </is>
+    </oc>
+    <nc r="AA2" t="inlineStr">
+      <is>
+        <t>Enquiry about Chatbot</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="372" sId="2">
+    <oc r="AA2" t="inlineStr">
+      <is>
+        <t xml:space="preserve">new text added </t>
+      </is>
+    </oc>
+    <nc r="AA2" t="inlineStr">
+      <is>
+        <t>Enquiry about Surveyform</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="373" sId="3">
+    <oc r="AA2" t="inlineStr">
+      <is>
+        <t>Enquired about project</t>
+      </is>
+    </oc>
+    <nc r="AA2" t="inlineStr">
+      <is>
+        <t>Enquiry about CRM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="374" sId="4">
+    <oc r="AA2" t="inlineStr">
+      <is>
+        <t>Enquired about income</t>
+      </is>
+    </oc>
+    <nc r="AA2" t="inlineStr">
+      <is>
+        <t>Enquiry about MobileApp</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="375" sId="4">
+    <oc r="AF2" t="inlineStr">
+      <is>
+        <t>Urgent</t>
+      </is>
+    </oc>
+    <nc r="AF2" t="inlineStr">
+      <is>
+        <t>Ordinary</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="376" sId="1">
+    <oc r="AG2" t="inlineStr">
+      <is>
+        <t>Every time the record is modified</t>
+      </is>
+    </oc>
+    <nc r="AG2" t="inlineStr">
+      <is>
+        <t>Every time the record is save</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="377" sId="2">
+    <oc r="AG2" t="inlineStr">
+      <is>
+        <t>Every time the record is modified</t>
+      </is>
+    </oc>
+    <nc r="AG2" t="inlineStr">
+      <is>
+        <t>Every time the record is save</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="378" sId="3">
+    <oc r="AG2" t="inlineStr">
+      <is>
+        <t>Every time the record is modified</t>
+      </is>
+    </oc>
+    <nc r="AG2" t="inlineStr">
+      <is>
+        <t>Every time the record is save</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="379" sId="4">
+    <oc r="AG2" t="inlineStr">
+      <is>
+        <t>Every time the record is modified</t>
+      </is>
+    </oc>
+    <nc r="AG2" t="inlineStr">
+      <is>
+        <t>Every time the record is save</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="380" sId="4">
+    <oc r="AI2" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRM</t>
+      </is>
+    </oc>
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="381" sId="3">
+    <oc r="AI2" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRM</t>
+      </is>
+    </oc>
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="382" sId="2">
+    <oc r="AI2" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRM</t>
+      </is>
+    </oc>
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="383" sId="1">
+    <oc r="AI2" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRM</t>
+      </is>
+    </oc>
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="384" sId="1">
+    <oc r="AK2" t="inlineStr">
+      <is>
+        <t>2</t>
+      </is>
+    </oc>
+    <nc r="AK2"/>
+  </rcc>
+  <rcc rId="385" sId="1">
+    <oc r="AU2" t="inlineStr">
+      <is>
+        <t>Lead@rsoft.in</t>
+      </is>
+    </oc>
+    <nc r="AU2" t="inlineStr">
+      <is>
+        <t>AddNewLead@gmail.com</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="386" sId="2">
+    <oc r="AU2" t="inlineStr">
+      <is>
+        <t>CRM_Lead@text.com</t>
+      </is>
+    </oc>
+    <nc r="AU2" t="inlineStr">
+      <is>
+        <t>SummaryAddLead@gmail.com</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="387" sId="3">
+    <oc r="AU2" t="inlineStr">
+      <is>
+        <t>CRMDuplicateLead@rsoft.in</t>
+      </is>
+    </oc>
+    <nc r="AU2" t="inlineStr">
+      <is>
+        <t>DuplicateLead@gmail.com</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="388" sId="4">
+    <oc r="AU2" t="inlineStr">
+      <is>
+        <t>EditLead@rsoft.in</t>
+      </is>
+    </oc>
+    <nc r="AU2" t="inlineStr">
+      <is>
+        <t>EditChangeLead@gmail.com</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="389" sId="4">
+    <oc r="AV2" t="inlineStr">
+      <is>
+        <t>Edit Lead Sample Text</t>
+      </is>
+    </oc>
+    <nc r="AV2" t="inlineStr">
+      <is>
+        <t>Lead about MobileApp</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="390" sId="3">
+    <oc r="AV2" t="inlineStr">
+      <is>
+        <t>Sample duplicate lead Text</t>
+      </is>
+    </oc>
+    <nc r="AV2" t="inlineStr">
+      <is>
+        <t>Lead about CRM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="391" sId="2">
+    <oc r="AV2" t="inlineStr">
+      <is>
+        <t>Lead Text</t>
+      </is>
+    </oc>
+    <nc r="AV2" t="inlineStr">
+      <is>
+        <t>Lead about Surveyform</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="392" sId="1">
+    <oc r="AV2" t="inlineStr">
+      <is>
+        <t>Sample Text</t>
+      </is>
+    </oc>
+    <nc r="AV2" t="inlineStr">
+      <is>
+        <t>Lead about Chatbot</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="393" sId="1">
+    <oc r="AY2" t="inlineStr">
+      <is>
+        <t>Sales@rsoft.in</t>
+      </is>
+    </oc>
+    <nc r="AY2" t="inlineStr">
+      <is>
+        <t>AddNewSales@gmail.com</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="394" sId="2">
+    <oc r="AY2" t="inlineStr">
+      <is>
+        <t>Sales@rsoft.in</t>
+      </is>
+    </oc>
+    <nc r="AY2" t="inlineStr">
+      <is>
+        <t>SummaryAddSales@gmail.com</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="395" sId="3">
+    <oc r="AY2" t="inlineStr">
+      <is>
+        <t>Sales@rsoft.in</t>
+      </is>
+    </oc>
+    <nc r="AY2" t="inlineStr">
+      <is>
+        <t>DuplicateSales@gmail.com</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="396" sId="4">
+    <oc r="AY2" t="inlineStr">
+      <is>
+        <t>EditSales@rsoft.in</t>
+      </is>
+    </oc>
+    <nc r="AY2" t="inlineStr">
+      <is>
+        <t>EditChangeSales@gmail.com</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="397" sId="2">
+    <oc r="L2" t="inlineStr">
+      <is>
+        <t>U S A</t>
+      </is>
+    </oc>
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>A</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="398" sId="1">
+    <nc r="Q2">
+      <v>444444444</v>
+    </nc>
+  </rcc>
+  <rcc rId="399" sId="2">
+    <nc r="Q2">
+      <v>55555555555</v>
+    </nc>
+  </rcc>
+  <rcc rId="400" sId="3">
+    <nc r="Q2">
+      <v>666666666</v>
+    </nc>
+  </rcc>
+  <rcc rId="401" sId="4">
+    <nc r="Q2">
+      <v>7777777777</v>
+    </nc>
+  </rcc>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,6 +1259,3276 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="delete"/>
   <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="20" sId="1">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Testing ETRS</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Testing ETR_M</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="1">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>7359764723</t>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>2503380077</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="1">
+    <oc r="P2" t="inlineStr">
+      <is>
+        <t>2024-01-03 12:00 PM</t>
+      </is>
+    </oc>
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>2024-01-03 05:00 PM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="1">
+    <oc r="AE2" t="inlineStr">
+      <is>
+        <t>5492530366</t>
+      </is>
+    </oc>
+    <nc r="AE2" t="inlineStr">
+      <is>
+        <t>2562299660</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="1">
+    <oc r="AG2" t="inlineStr">
+      <is>
+        <t>Every time the record is save</t>
+      </is>
+    </oc>
+    <nc r="AG2" t="inlineStr">
+      <is>
+        <t>Every time the record is modified</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="1">
+    <oc r="AI2" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRS</t>
+      </is>
+    </oc>
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="1">
+    <oc r="AK2" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </oc>
+    <nc r="AK2" t="inlineStr">
+      <is>
+        <t>2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="27" sId="1">
+    <oc r="AT2" t="inlineStr">
+      <is>
+        <t>0288005030</t>
+      </is>
+    </oc>
+    <nc r="AT2" t="inlineStr">
+      <is>
+        <t>2430732637</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="28" sId="1">
+    <oc r="AX2" t="inlineStr">
+      <is>
+        <t>9205491779</t>
+      </is>
+    </oc>
+    <nc r="AX2" t="inlineStr">
+      <is>
+        <t>2774830371</t>
+      </is>
+    </nc>
+  </rcc>
+  <ris rId="29" sheetId="2" name="[WF5_Send_SMS_ETR_S_Test.xlsx]Sheet2" sheetPosition="1"/>
+  <rcc rId="30" sId="2">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>ModuleName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="2">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>WorflowName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="2">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>AssignedTo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="2">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="2">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>MobNumPrefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="2">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>MobileNumber</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="2">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>Email</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="37" sId="2">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>PickList</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="38" sId="2">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>MultiCombo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="2">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>City</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="40" sId="2">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>State</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="41" sId="2">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>Country</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="42" sId="2">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>CheckBox</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="43" sId="2">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>Date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="2">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>Time</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="45" sId="2">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>Date&amp;Time</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="46" sId="2">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>RelatedModule</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="47" sId="2">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>File</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="48" sId="2">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>NamePrefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="49" sId="2">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="50" sId="2">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>Number</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="51" sId="2">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>Currency</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="52" sId="2">
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>Url</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="53" sId="2">
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>Enq_Name_Prefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="54" sId="2">
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>Enquiry_Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="2">
+    <nc r="Z1" t="inlineStr">
+      <is>
+        <t>Enquiry_Email</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="56" sId="2">
+    <nc r="AA1" t="inlineStr">
+      <is>
+        <t>Enquiry_Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="57" sId="2">
+    <nc r="AB1" t="inlineStr">
+      <is>
+        <t>Enquiry_TextArea</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="58" sId="2">
+    <nc r="AC1" t="inlineStr">
+      <is>
+        <t>Enquiry_Date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="59" sId="2">
+    <nc r="AD1" t="inlineStr">
+      <is>
+        <t>Enq_PN_Prefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="60" sId="2">
+    <nc r="AE1" t="inlineStr">
+      <is>
+        <t>Enquiry_PhoneNumber</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="61" sId="2">
+    <nc r="AF1" t="inlineStr">
+      <is>
+        <t>Enquiry_Category</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="62" sId="2">
+    <nc r="AG1" t="inlineStr">
+      <is>
+        <t>Exec_Condition</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="63" sId="2">
+    <nc r="AH1" t="inlineStr">
+      <is>
+        <t>Action_Type</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="64" sId="2">
+    <nc r="AI1" t="inlineStr">
+      <is>
+        <t>Action_Title</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="65" sId="2">
+    <nc r="AJ1" t="inlineStr">
+      <is>
+        <t>WorkflowPos</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="66" sId="2">
+    <nc r="AK1" t="inlineStr">
+      <is>
+        <t>User1_MessageId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="67" sId="2">
+    <nc r="AL1" t="inlineStr">
+      <is>
+        <t>User2_MessageId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="68" sId="2">
+    <nc r="AM1" t="inlineStr">
+      <is>
+        <t>User3_MessageId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="69" sId="2">
+    <nc r="AN1" t="inlineStr">
+      <is>
+        <t>User1RecId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="70" sId="2">
+    <nc r="AO1" t="inlineStr">
+      <is>
+        <t>User2RecId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="71" sId="2">
+    <nc r="AP1" t="inlineStr">
+      <is>
+        <t>User3RecId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="72" sId="2">
+    <nc r="AQ1" t="inlineStr">
+      <is>
+        <t>ModuleDisplayName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="73" sId="2">
+    <nc r="AR1" t="inlineStr">
+      <is>
+        <t>EditRecText</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="74" sId="2">
+    <nc r="AS1" t="inlineStr">
+      <is>
+        <t>Lead_PN_Prefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="75" sId="2">
+    <nc r="AT1" t="inlineStr">
+      <is>
+        <t>Lead_PN</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="76" sId="2">
+    <nc r="AU1" t="inlineStr">
+      <is>
+        <t>Lead_Email</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="77" sId="2">
+    <nc r="AV1" t="inlineStr">
+      <is>
+        <t>Lead_Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="78" sId="2">
+    <nc r="AW1" t="inlineStr">
+      <is>
+        <t>Sales_PN_Prefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="79" sId="2">
+    <nc r="AX1" t="inlineStr">
+      <is>
+        <t>Sales_PN</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="80" sId="2">
+    <nc r="AY1" t="inlineStr">
+      <is>
+        <t>Sales_Email</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="81" sId="2">
+    <nc r="AZ1" t="inlineStr">
+      <is>
+        <t>SMSTemplate_Msg</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="82" sId="2">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>CRMModOnlyonFirstSave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="83" sId="2">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>Sudhakar VE</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="84" sId="2">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>New Add Text : Testing ETR_M</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="85" sId="2" odxf="1" quotePrefix="1">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>+65</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="86" sId="2">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>2503380077</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="87" sId="2" odxf="1" s="1" dxf="1">
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>sudhavijayarag@gmail.com</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="88" sId="2">
+    <nc r="H2">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="89" sId="2">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>two</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="90" sId="2">
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>Chennai</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="91" sId="2">
+    <nc r="K2" t="inlineStr">
+      <is>
+        <t>Tamilnadu</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="92" sId="2">
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>India</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="93" sId="2">
+    <nc r="M2" t="inlineStr">
+      <is>
+        <t>ON</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="94" sId="2">
+    <nc r="N2" t="inlineStr">
+      <is>
+        <t>2024-01-03</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="95" sId="2">
+    <nc r="O2" t="inlineStr">
+      <is>
+        <t>02:35PM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="96" sId="2">
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>2024-01-03 05:00 PM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="97" sId="2">
+    <nc r="R2" t="inlineStr">
+      <is>
+        <t>annie-spratt</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="98" sId="2">
+    <nc r="S2" t="inlineStr">
+      <is>
+        <t>Mrs.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="99" sId="2">
+    <nc r="T2" t="inlineStr">
+      <is>
+        <t>Sudhakar</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="100" sId="2">
+    <nc r="U2">
+      <v>44444444444</v>
+    </nc>
+  </rcc>
+  <rcc rId="101" sId="2" odxf="1" dxf="1" numFmtId="4">
+    <nc r="V2">
+      <v>70000</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="102" sId="2" odxf="1" s="1" dxf="1">
+    <nc r="W2" t="inlineStr">
+      <is>
+        <t>http://www.google.com/</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="103" sId="2" odxf="1" s="1" dxf="1">
+    <nc r="X2" t="inlineStr">
+      <is>
+        <t>Dr.</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="104" sId="2">
+    <nc r="Y2" t="inlineStr">
+      <is>
+        <t>Annie spratt</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="105" sId="2" odxf="1" s="1" dxf="1">
+    <nc r="Z2" t="inlineStr">
+      <is>
+        <t>secondadd@gmail.com</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="106" sId="2" odxf="1" s="1" dxf="1">
+    <nc r="AA2" t="inlineStr">
+      <is>
+        <t xml:space="preserve">new text added </t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="107" sId="2" odxf="1" dxf="1">
+    <nc r="AB2" t="inlineStr">
+      <is>
+        <t>RSoft World-Class CRM Software (Customer Relationship Management) solution has been helping all kinds of small and medium businesses to organise, automate and improve their business. Our 15+ years of experience in Sales and Marketing. RSoft makes your business run transparently and intelligently which projects your brand image and win your customers satisfaction. RSoft is way ahead of other CRM's with its new generation features.</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="108" sId="2">
+    <nc r="AC2" t="inlineStr">
+      <is>
+        <t>2024-01-03</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="109" sId="2" odxf="1" quotePrefix="1">
+    <nc r="AD2" t="inlineStr">
+      <is>
+        <t>+60</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="110" sId="2">
+    <nc r="AE2" t="inlineStr">
+      <is>
+        <t>2562299660</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="111" sId="2">
+    <nc r="AF2" t="inlineStr">
+      <is>
+        <t>Urgent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="112" sId="2">
+    <nc r="AG2" t="inlineStr">
+      <is>
+        <t>Every time the record is modified</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="113" sId="2">
+    <nc r="AH2" t="inlineStr">
+      <is>
+        <t>Send SMS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="114" sId="2">
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="115" sId="2">
+    <nc r="AQ2" t="inlineStr">
+      <is>
+        <t>CRMNotification</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="116" sId="2">
+    <nc r="AR2" t="inlineStr">
+      <is>
+        <t>IndividualTextEdited</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="117" sId="2" odxf="1" quotePrefix="1">
+    <nc r="AS2" t="inlineStr">
+      <is>
+        <t>+91</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="118" sId="2">
+    <nc r="AT2" t="inlineStr">
+      <is>
+        <t>2430732637</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="119" sId="2" odxf="1" s="1" dxf="1">
+    <nc r="AU2" t="inlineStr">
+      <is>
+        <t>CRM_Lead@text.com</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="120" sId="2">
+    <nc r="AV2" t="inlineStr">
+      <is>
+        <t>Lead Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="121" sId="2" odxf="1" quotePrefix="1">
+    <nc r="AW2" t="inlineStr">
+      <is>
+        <t>+60</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="122" sId="2">
+    <nc r="AX2" t="inlineStr">
+      <is>
+        <t>2774830371</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="123" sId="2" odxf="1" s="1" dxf="1">
+    <nc r="AY2" t="inlineStr">
+      <is>
+        <t>Sales@rsoft.in</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="124" sId="2" odxf="1" dxf="1">
+    <nc r="AZ2" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> Hi, Thanks for contacting RSoft. Test Automation ensures quality of the app and maximum test coverage and validation. </t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <ris rId="125" sheetId="3" name="[WF5_Send_SMS_ETR_S_Test.xlsx]Sheet3" sheetPosition="2"/>
+  <rcc rId="126" sId="3">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>ModuleName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="127" sId="3">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>WorflowName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="128" sId="3">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>AssignedTo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="129" sId="3">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="130" sId="3">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>MobNumPrefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="131" sId="3">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>MobileNumber</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="132" sId="3">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>Email</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="133" sId="3">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>PickList</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="134" sId="3">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>MultiCombo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="135" sId="3">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>City</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="136" sId="3">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>State</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="137" sId="3">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>Country</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="138" sId="3">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>CheckBox</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="139" sId="3">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>Date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="140" sId="3">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>Time</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="141" sId="3">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>Date&amp;Time</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="142" sId="3">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>RelatedModule</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="143" sId="3">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>File</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="144" sId="3">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>NamePrefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="145" sId="3">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="146" sId="3">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>Number</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="147" sId="3">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>Currency</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="148" sId="3">
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>Url</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="149" sId="3">
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>Enq_Name_Prefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="150" sId="3">
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>Enquiry_Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="151" sId="3">
+    <nc r="Z1" t="inlineStr">
+      <is>
+        <t>Enquiry_Email</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="152" sId="3">
+    <nc r="AA1" t="inlineStr">
+      <is>
+        <t>Enquiry_Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="153" sId="3">
+    <nc r="AB1" t="inlineStr">
+      <is>
+        <t>Enquiry_TextArea</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="154" sId="3">
+    <nc r="AC1" t="inlineStr">
+      <is>
+        <t>Enquiry_Date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="155" sId="3">
+    <nc r="AD1" t="inlineStr">
+      <is>
+        <t>Enq_PN_Prefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="156" sId="3">
+    <nc r="AE1" t="inlineStr">
+      <is>
+        <t>Enquiry_PhoneNumber</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="157" sId="3">
+    <nc r="AF1" t="inlineStr">
+      <is>
+        <t>Enquiry_Category</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="158" sId="3">
+    <nc r="AG1" t="inlineStr">
+      <is>
+        <t>Exec_Condition</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="159" sId="3">
+    <nc r="AH1" t="inlineStr">
+      <is>
+        <t>Action_Type</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="160" sId="3">
+    <nc r="AI1" t="inlineStr">
+      <is>
+        <t>Action_Title</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="161" sId="3">
+    <nc r="AJ1" t="inlineStr">
+      <is>
+        <t>WorkflowPos</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="162" sId="3">
+    <nc r="AK1" t="inlineStr">
+      <is>
+        <t>User1_MessageId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="163" sId="3">
+    <nc r="AL1" t="inlineStr">
+      <is>
+        <t>User2_MessageId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="164" sId="3">
+    <nc r="AM1" t="inlineStr">
+      <is>
+        <t>User3_MessageId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="165" sId="3">
+    <nc r="AN1" t="inlineStr">
+      <is>
+        <t>User1RecId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="166" sId="3">
+    <nc r="AO1" t="inlineStr">
+      <is>
+        <t>User2RecId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="167" sId="3">
+    <nc r="AP1" t="inlineStr">
+      <is>
+        <t>User3RecId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="168" sId="3">
+    <nc r="AQ1" t="inlineStr">
+      <is>
+        <t>ModuleDisplayName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="169" sId="3">
+    <nc r="AR1" t="inlineStr">
+      <is>
+        <t>EditRecText</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="170" sId="3">
+    <nc r="AS1" t="inlineStr">
+      <is>
+        <t>Lead_PN_Prefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="171" sId="3">
+    <nc r="AT1" t="inlineStr">
+      <is>
+        <t>Lead_PN</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="172" sId="3">
+    <nc r="AU1" t="inlineStr">
+      <is>
+        <t>Lead_Email</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="173" sId="3">
+    <nc r="AV1" t="inlineStr">
+      <is>
+        <t>Lead_Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="174" sId="3">
+    <nc r="AW1" t="inlineStr">
+      <is>
+        <t>Sales_PN_Prefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="175" sId="3">
+    <nc r="AX1" t="inlineStr">
+      <is>
+        <t>Sales_PN</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="176" sId="3">
+    <nc r="AY1" t="inlineStr">
+      <is>
+        <t>Sales_Email</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="177" sId="3">
+    <nc r="AZ1" t="inlineStr">
+      <is>
+        <t>SMSTemplate_Msg</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="178" sId="3">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>CRMModOnlyonFirstSave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="179" sId="3">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>Sudhakar VE</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="180" sId="3">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Testing ETR_M</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="181" sId="3" odxf="1" quotePrefix="1">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>+65</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="182" sId="3">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>2503380077</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="183" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>sv@bluecrimson.in</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="184" sId="3">
+    <nc r="H2">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="185" sId="3">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>three</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="186" sId="3">
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>Ozar</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="187" sId="3">
+    <nc r="K2" t="inlineStr">
+      <is>
+        <t>Telengana</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="188" sId="3">
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>India</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="189" sId="3">
+    <nc r="M2" t="inlineStr">
+      <is>
+        <t>ON</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="190" sId="3">
+    <nc r="N2" t="inlineStr">
+      <is>
+        <t>2024-01-03</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="191" sId="3">
+    <nc r="O2" t="inlineStr">
+      <is>
+        <t>02:35PM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="192" sId="3">
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>2024-01-03 05:00 PM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="193" sId="3">
+    <nc r="R2" t="inlineStr">
+      <is>
+        <t>annie-spratt</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="194" sId="3">
+    <nc r="S2" t="inlineStr">
+      <is>
+        <t>Mrs.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="195" sId="3">
+    <nc r="T2" t="inlineStr">
+      <is>
+        <t>Steven</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="196" sId="3">
+    <nc r="U2">
+      <v>33333333333</v>
+    </nc>
+  </rcc>
+  <rcc rId="197" sId="3" odxf="1" dxf="1" numFmtId="4">
+    <nc r="V2">
+      <v>8000</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="198" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="W2" t="inlineStr">
+      <is>
+        <t>http://www.rsoft.com</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="199" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="X2" t="inlineStr">
+      <is>
+        <t>Dr.</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="200" sId="3">
+    <nc r="Y2" t="inlineStr">
+      <is>
+        <t>Vijay</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="201" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="Z2" t="inlineStr">
+      <is>
+        <t>DuplcateEqnury@gmail.com</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="202" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="AA2" t="inlineStr">
+      <is>
+        <t>Enquired about project</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="203" sId="3" odxf="1" dxf="1">
+    <nc r="AB2" t="inlineStr">
+      <is>
+        <t>RSoft World-Class CRM Software (Customer Relationship Management) solution has been helping all kinds of small and medium businesses to organise, automate and improve their business. Our 15+ years of experience in Sales and Marketing. RSoft makes your business run transparently and intelligently which projects your brand image and win your customers satisfaction. RSoft is way ahead of other CRM's with its new generation features.</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="204" sId="3">
+    <nc r="AC2" t="inlineStr">
+      <is>
+        <t>2024-01-03</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="205" sId="3" odxf="1" quotePrefix="1">
+    <nc r="AD2" t="inlineStr">
+      <is>
+        <t>+60</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="206" sId="3">
+    <nc r="AE2" t="inlineStr">
+      <is>
+        <t>2562299660</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="207" sId="3">
+    <nc r="AF2" t="inlineStr">
+      <is>
+        <t>Moderate</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="208" sId="3">
+    <nc r="AG2" t="inlineStr">
+      <is>
+        <t>Every time the record is modified</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="209" sId="3">
+    <nc r="AH2" t="inlineStr">
+      <is>
+        <t>Send SMS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="210" sId="3">
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="211" sId="3">
+    <nc r="AQ2" t="inlineStr">
+      <is>
+        <t>CRMNotification</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="212" sId="3">
+    <nc r="AR2" t="inlineStr">
+      <is>
+        <t>IndividualTextEdited</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="213" sId="3" odxf="1" quotePrefix="1">
+    <nc r="AS2" t="inlineStr">
+      <is>
+        <t>+91</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="214" sId="3">
+    <nc r="AT2" t="inlineStr">
+      <is>
+        <t>2430732637</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="215" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="AU2" t="inlineStr">
+      <is>
+        <t>CRMDuplicateLead@rsoft.in</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="216" sId="3">
+    <nc r="AV2" t="inlineStr">
+      <is>
+        <t>Sample duplicate lead Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="217" sId="3" odxf="1" quotePrefix="1">
+    <nc r="AW2" t="inlineStr">
+      <is>
+        <t>+60</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="218" sId="3">
+    <nc r="AX2" t="inlineStr">
+      <is>
+        <t>2774830371</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="219" sId="3" odxf="1" s="1" dxf="1">
+    <nc r="AY2" t="inlineStr">
+      <is>
+        <t>Sales@rsoft.in</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="220" sId="3" odxf="1" dxf="1">
+    <nc r="AZ2" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> Hi, Thanks for contacting RSoft. Test Automation ensures quality of the app and maximum test coverage and validation. </t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <ris rId="221" sheetId="4" name="[WF5_Send_SMS_ETR_S_Test.xlsx]Sheet4" sheetPosition="3"/>
+  <rcc rId="222" sId="4">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>ModuleName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="223" sId="4">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>WorflowName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="224" sId="4">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>AssignedTo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="225" sId="4">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="226" sId="4">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>MobNumPrefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="227" sId="4">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>MobileNumber</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="228" sId="4">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>Email</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="229" sId="4">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>PickList</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="230" sId="4">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>MultiCombo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="231" sId="4">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>City</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="232" sId="4">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>State</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="233" sId="4">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>Country</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="234" sId="4">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>CheckBox</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="235" sId="4">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>Date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="236" sId="4">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>Time</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="237" sId="4">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>Date&amp;Time</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="238" sId="4">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>RelatedModule</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="239" sId="4">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>File</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="240" sId="4">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>NamePrefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="241" sId="4">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="242" sId="4">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>Number</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="243" sId="4">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>Currency</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="244" sId="4">
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>Url</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="245" sId="4">
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>Enq_Name_Prefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="246" sId="4">
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>Enquiry_Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="247" sId="4">
+    <nc r="Z1" t="inlineStr">
+      <is>
+        <t>Enquiry_Email</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="248" sId="4">
+    <nc r="AA1" t="inlineStr">
+      <is>
+        <t>Enquiry_Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="249" sId="4">
+    <nc r="AB1" t="inlineStr">
+      <is>
+        <t>Enquiry_TextArea</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="250" sId="4">
+    <nc r="AC1" t="inlineStr">
+      <is>
+        <t>Enquiry_Date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="251" sId="4">
+    <nc r="AD1" t="inlineStr">
+      <is>
+        <t>Enq_PN_Prefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="252" sId="4">
+    <nc r="AE1" t="inlineStr">
+      <is>
+        <t>Enquiry_PhoneNumber</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="253" sId="4">
+    <nc r="AF1" t="inlineStr">
+      <is>
+        <t>Enquiry_Category</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="254" sId="4">
+    <nc r="AG1" t="inlineStr">
+      <is>
+        <t>Exec_Condition</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="255" sId="4">
+    <nc r="AH1" t="inlineStr">
+      <is>
+        <t>Action_Type</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="256" sId="4">
+    <nc r="AI1" t="inlineStr">
+      <is>
+        <t>Action_Title</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="257" sId="4">
+    <nc r="AJ1" t="inlineStr">
+      <is>
+        <t>WorkflowPos</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="258" sId="4">
+    <nc r="AK1" t="inlineStr">
+      <is>
+        <t>User1_MessageId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="259" sId="4">
+    <nc r="AL1" t="inlineStr">
+      <is>
+        <t>User2_MessageId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="260" sId="4">
+    <nc r="AM1" t="inlineStr">
+      <is>
+        <t>User3_MessageId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="261" sId="4">
+    <nc r="AN1" t="inlineStr">
+      <is>
+        <t>User1RecId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="262" sId="4">
+    <nc r="AO1" t="inlineStr">
+      <is>
+        <t>User2RecId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="263" sId="4">
+    <nc r="AP1" t="inlineStr">
+      <is>
+        <t>User3RecId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="264" sId="4">
+    <nc r="AQ1" t="inlineStr">
+      <is>
+        <t>ModuleDisplayName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="265" sId="4">
+    <nc r="AR1" t="inlineStr">
+      <is>
+        <t>EditRecText</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="266" sId="4">
+    <nc r="AS1" t="inlineStr">
+      <is>
+        <t>Lead_PN_Prefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="267" sId="4">
+    <nc r="AT1" t="inlineStr">
+      <is>
+        <t>Lead_PN</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="268" sId="4">
+    <nc r="AU1" t="inlineStr">
+      <is>
+        <t>Lead_Email</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="269" sId="4">
+    <nc r="AV1" t="inlineStr">
+      <is>
+        <t>Lead_Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="270" sId="4">
+    <nc r="AW1" t="inlineStr">
+      <is>
+        <t>Sales_PN_Prefix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="271" sId="4">
+    <nc r="AX1" t="inlineStr">
+      <is>
+        <t>Sales_PN</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="272" sId="4">
+    <nc r="AY1" t="inlineStr">
+      <is>
+        <t>Sales_Email</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="273" sId="4">
+    <nc r="AZ1" t="inlineStr">
+      <is>
+        <t>SMSTemplate_Msg</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="274" sId="4">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>CRMModOnlyonFirstSave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="275" sId="4">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>Sudhakar VE</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="276" sId="4">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Testing ETR_M</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="277" sId="4" odxf="1" quotePrefix="1">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>+65</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="278" sId="4">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>2503380077</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="279" sId="4" odxf="1" s="1" dxf="1">
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>EditSudhakar@rsoft.in</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="280" sId="4">
+    <nc r="H2">
+      <v>5</v>
+    </nc>
+  </rcc>
+  <rcc rId="281" sId="4">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>four</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="282" sId="4">
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>Madurai</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="283" sId="4">
+    <nc r="K2" t="inlineStr">
+      <is>
+        <t>Tamilnadu</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="284" sId="4">
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>India</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="285" sId="4">
+    <nc r="M2" t="inlineStr">
+      <is>
+        <t>ON</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="286" sId="4">
+    <nc r="N2" t="inlineStr">
+      <is>
+        <t>2024-01-03</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="287" sId="4">
+    <nc r="O2" t="inlineStr">
+      <is>
+        <t>02:35PM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="288" sId="4">
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>2024-01-03 05:00 PM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="289" sId="4">
+    <nc r="R2" t="inlineStr">
+      <is>
+        <t>annie-spratt</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="290" sId="4">
+    <nc r="S2" t="inlineStr">
+      <is>
+        <t>Mrs.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="291" sId="4">
+    <nc r="T2" t="inlineStr">
+      <is>
+        <t>Sudhakar</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="292" sId="4">
+    <nc r="U2">
+      <v>6666666666</v>
+    </nc>
+  </rcc>
+  <rcc rId="293" sId="4" odxf="1" dxf="1" numFmtId="4">
+    <nc r="V2">
+      <v>77777777</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="294" sId="4" odxf="1" s="1" dxf="1">
+    <nc r="W2" t="inlineStr">
+      <is>
+        <t>http://www.google.com/</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="295" sId="4" odxf="1" s="1" dxf="1">
+    <nc r="X2" t="inlineStr">
+      <is>
+        <t>Dr.</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="296" sId="4">
+    <nc r="Y2" t="inlineStr">
+      <is>
+        <t>Edit Test Names</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="297" sId="4" odxf="1" s="1" dxf="1">
+    <nc r="Z2" t="inlineStr">
+      <is>
+        <t>EditEnquiry@test.com</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="298" sId="4" odxf="1" s="1" dxf="1">
+    <nc r="AA2" t="inlineStr">
+      <is>
+        <t>Enquired about income</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="299" sId="4" odxf="1" dxf="1">
+    <nc r="AB2" t="inlineStr">
+      <is>
+        <t>RSoft World-Class CRM Software (Customer Relationship Management) solution has been helping all kinds of small and medium businesses to organise, automate and improve their business. Our 15+ years of experience in Sales and Marketing. RSoft makes your business run transparently and intelligently which projects your brand image and win your customers satisfaction. RSoft is way ahead of other CRM's with its new generation features.</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="300" sId="4">
+    <nc r="AC2" t="inlineStr">
+      <is>
+        <t>2024-01-03</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="301" sId="4" odxf="1" quotePrefix="1">
+    <nc r="AD2" t="inlineStr">
+      <is>
+        <t>+60</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="302" sId="4">
+    <nc r="AE2" t="inlineStr">
+      <is>
+        <t>2562299660</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="303" sId="4">
+    <nc r="AF2" t="inlineStr">
+      <is>
+        <t>Urgent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="304" sId="4">
+    <nc r="AG2" t="inlineStr">
+      <is>
+        <t>Every time the record is modified</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="305" sId="4">
+    <nc r="AH2" t="inlineStr">
+      <is>
+        <t>Send SMS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="306" sId="4">
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="307" sId="4">
+    <nc r="AQ2" t="inlineStr">
+      <is>
+        <t>CRMNotification</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="308" sId="4">
+    <nc r="AR2" t="inlineStr">
+      <is>
+        <t>IndividualTextEdited</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="309" sId="4" odxf="1" quotePrefix="1">
+    <nc r="AS2" t="inlineStr">
+      <is>
+        <t>+91</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="310" sId="4">
+    <nc r="AT2" t="inlineStr">
+      <is>
+        <t>2430732637</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="311" sId="4" odxf="1" s="1" dxf="1">
+    <nc r="AU2" t="inlineStr">
+      <is>
+        <t>EditLead@rsoft.in</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="312" sId="4">
+    <nc r="AV2" t="inlineStr">
+      <is>
+        <t>Edit Lead Sample Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="313" sId="4" odxf="1" quotePrefix="1">
+    <nc r="AW2" t="inlineStr">
+      <is>
+        <t>+60</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="314" sId="4">
+    <nc r="AX2" t="inlineStr">
+      <is>
+        <t>2774830371</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="315" sId="4" odxf="1" s="1" dxf="1">
+    <nc r="AY2" t="inlineStr">
+      <is>
+        <t>EditSales@rsoft.in</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="316" sId="4" odxf="1" dxf="1">
+    <nc r="AZ2" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> Hi, Thanks for contacting RSoft. Test Automation ensures quality of the app and maximum test coverage and validation. </t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="317" sId="2">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>WF5_Send_SMS_ETR_S</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="318" sId="3">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>WF5_Send_SMS_ETR_S</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="319" sId="4">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>WF5_Send_SMS_ETR_S</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="delete"/>
+  <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="320" sId="1">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Testing ETR_M</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Add New Text</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="321" sId="2">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>New Add Text : Testing ETR_M</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Summary Add Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="322" sId="3">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Testing ETR_M</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Duplicate Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="323" sId="4">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Testing ETR_M</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Edit Text</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="324" sId="1">
+    <oc r="G2" t="inlineStr">
+      <is>
+        <t>sudhakar@rsoft.in</t>
+      </is>
+    </oc>
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>AddNew@rsoft.in</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="325" sId="2">
+    <oc r="G2" t="inlineStr">
+      <is>
+        <t>sudhavijayarag@gmail.com</t>
+      </is>
+    </oc>
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>SummaryAdd@rsoft.in</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="326" sId="3">
+    <oc r="G2" t="inlineStr">
+      <is>
+        <t>sv@bluecrimson.in</t>
+      </is>
+    </oc>
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>Duplicate@rsoft.in</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="327" sId="4">
+    <oc r="G2" t="inlineStr">
+      <is>
+        <t>EditSudhakar@rsoft.in</t>
+      </is>
+    </oc>
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>Duplicatechange@rsoft.in</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="328" sId="1">
+    <oc r="H2">
+      <v>3</v>
+    </oc>
+    <nc r="H2">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="329" sId="2">
+    <oc r="H2">
+      <v>4</v>
+    </oc>
+    <nc r="H2">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="330" sId="3">
+    <oc r="H2">
+      <v>4</v>
+    </oc>
+    <nc r="H2">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="331" sId="4">
+    <oc r="H2">
+      <v>5</v>
+    </oc>
+    <nc r="H2">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="332" sId="2">
+    <oc r="J2" t="inlineStr">
+      <is>
+        <t>Chennai</t>
+      </is>
+    </oc>
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>Madras9</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="333" sId="3">
+    <oc r="J2" t="inlineStr">
+      <is>
+        <t>Ozar</t>
+      </is>
+    </oc>
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>New Value1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="334" sId="4">
+    <oc r="J2" t="inlineStr">
+      <is>
+        <t>Madurai</t>
+      </is>
+    </oc>
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>Chennai</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="335" sId="4">
+    <oc r="K2" t="inlineStr">
+      <is>
+        <t>Tamilnadu</t>
+      </is>
+    </oc>
+    <nc r="K2" t="inlineStr">
+      <is>
+        <t>Tripura</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="336" sId="3">
+    <oc r="K2" t="inlineStr">
+      <is>
+        <t>Telengana</t>
+      </is>
+    </oc>
+    <nc r="K2" t="inlineStr">
+      <is>
+        <t>Sikkim</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="337" sId="2">
+    <oc r="K2" t="inlineStr">
+      <is>
+        <t>Tamilnadu</t>
+      </is>
+    </oc>
+    <nc r="K2" t="inlineStr">
+      <is>
+        <t>Telangana</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="338" sId="2">
+    <oc r="L2" t="inlineStr">
+      <is>
+        <t>India</t>
+      </is>
+    </oc>
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>U S A</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="339" sId="3">
+    <oc r="L2" t="inlineStr">
+      <is>
+        <t>India</t>
+      </is>
+    </oc>
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>AA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="340" sId="4">
+    <oc r="L2" t="inlineStr">
+      <is>
+        <t>India</t>
+      </is>
+    </oc>
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>CAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="341" sId="2">
+    <oc r="M2" t="inlineStr">
+      <is>
+        <t>ON</t>
+      </is>
+    </oc>
+    <nc r="M2" t="inlineStr">
+      <is>
+        <t>OFF</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="342" sId="4">
+    <oc r="M2" t="inlineStr">
+      <is>
+        <t>ON</t>
+      </is>
+    </oc>
+    <nc r="M2" t="inlineStr">
+      <is>
+        <t>OFF</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="343" sId="1">
+    <oc r="T2" t="inlineStr">
+      <is>
+        <t>Sudhakar</t>
+      </is>
+    </oc>
+    <nc r="T2" t="inlineStr">
+      <is>
+        <t>Steven</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="344" sId="2">
+    <oc r="S2" t="inlineStr">
+      <is>
+        <t>Mrs.</t>
+      </is>
+    </oc>
+    <nc r="S2" t="inlineStr">
+      <is>
+        <t>Dr.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="345" sId="2">
+    <oc r="T2" t="inlineStr">
+      <is>
+        <t>Sudhakar</t>
+      </is>
+    </oc>
+    <nc r="T2" t="inlineStr">
+      <is>
+        <t>Sathyan</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="346" sId="3">
+    <oc r="S2" t="inlineStr">
+      <is>
+        <t>Mrs.</t>
+      </is>
+    </oc>
+    <nc r="S2" t="inlineStr">
+      <is>
+        <t>Prof.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="347" sId="3">
+    <oc r="T2" t="inlineStr">
+      <is>
+        <t>Steven</t>
+      </is>
+    </oc>
+    <nc r="T2" t="inlineStr">
+      <is>
+        <t>Vijay</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="348" sId="4">
+    <oc r="S2" t="inlineStr">
+      <is>
+        <t>Mrs.</t>
+      </is>
+    </oc>
+    <nc r="S2" t="inlineStr">
+      <is>
+        <t>Ms.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="349" sId="4">
+    <oc r="T2" t="inlineStr">
+      <is>
+        <t>Sudhakar</t>
+      </is>
+    </oc>
+    <nc r="T2" t="inlineStr">
+      <is>
+        <t>Selvi</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="350" sId="4">
+    <oc r="U2">
+      <v>6666666666</v>
+    </oc>
+    <nc r="U2">
+      <v>44444444444</v>
+    </nc>
+  </rcc>
+  <rcc rId="351" sId="2">
+    <oc r="U2">
+      <v>44444444444</v>
+    </oc>
+    <nc r="U2">
+      <v>22222222222</v>
+    </nc>
+  </rcc>
+  <rcc rId="352" sId="1">
+    <oc r="U2">
+      <v>33333333333</v>
+    </oc>
+    <nc r="U2">
+      <v>11111111111</v>
+    </nc>
+  </rcc>
+  <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="delete"/>
+  <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="353" sId="1" numFmtId="4">
+    <oc r="V2">
+      <v>8000</v>
+    </oc>
+    <nc r="V2">
+      <v>10000</v>
+    </nc>
+  </rcc>
+  <rcc rId="354" sId="2" numFmtId="4">
+    <oc r="V2">
+      <v>70000</v>
+    </oc>
+    <nc r="V2">
+      <v>20000</v>
+    </nc>
+  </rcc>
+  <rcc rId="355" sId="3" numFmtId="4">
+    <oc r="V2">
+      <v>8000</v>
+    </oc>
+    <nc r="V2">
+      <v>30000</v>
+    </nc>
+  </rcc>
+  <rcc rId="356" sId="4" numFmtId="4">
+    <oc r="V2">
+      <v>77777777</v>
+    </oc>
+    <nc r="V2">
+      <v>40000</v>
+    </nc>
+  </rcc>
+  <rcc rId="357" sId="4">
+    <oc r="W2" t="inlineStr">
+      <is>
+        <t>http://www.google.com/</t>
+      </is>
+    </oc>
+    <nc r="W2" t="inlineStr">
+      <is>
+        <t>https://www.selenium.dev/</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="358" sId="3">
+    <oc r="W2" t="inlineStr">
+      <is>
+        <t>http://www.rsoft.com</t>
+      </is>
+    </oc>
+    <nc r="W2" t="inlineStr">
+      <is>
+        <t>https://mvnrepository.com/</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="359" sId="2">
+    <oc r="W2" t="inlineStr">
+      <is>
+        <t>http://www.google.com/</t>
+      </is>
+    </oc>
+    <nc r="W2" t="inlineStr">
+      <is>
+        <t>https://www.rsoft.in/</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="360" sId="1">
+    <oc r="Y2" t="inlineStr">
+      <is>
+        <t>TestNames</t>
+      </is>
+    </oc>
+    <nc r="Y2" t="inlineStr">
+      <is>
+        <t>Annie</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="361" sId="2">
+    <oc r="X2" t="inlineStr">
+      <is>
+        <t>Dr.</t>
+      </is>
+    </oc>
+    <nc r="X2" t="inlineStr">
+      <is>
+        <t>Mr.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="362" sId="2">
+    <oc r="Y2" t="inlineStr">
+      <is>
+        <t>Annie spratt</t>
+      </is>
+    </oc>
+    <nc r="Y2" t="inlineStr">
+      <is>
+        <t>Harry</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="363" sId="3">
+    <oc r="X2" t="inlineStr">
+      <is>
+        <t>Dr.</t>
+      </is>
+    </oc>
+    <nc r="X2" t="inlineStr">
+      <is>
+        <t>Prof.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="364" sId="3">
+    <oc r="Y2" t="inlineStr">
+      <is>
+        <t>Vijay</t>
+      </is>
+    </oc>
+    <nc r="Y2" t="inlineStr">
+      <is>
+        <t>Mohammed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="365" sId="4">
+    <oc r="X2" t="inlineStr">
+      <is>
+        <t>Dr.</t>
+      </is>
+    </oc>
+    <nc r="X2" t="inlineStr">
+      <is>
+        <t>Mrs.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="366" sId="4">
+    <oc r="Y2" t="inlineStr">
+      <is>
+        <t>Edit Test Names</t>
+      </is>
+    </oc>
+    <nc r="Y2" t="inlineStr">
+      <is>
+        <t>Sujay</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -884,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -916,9 +4833,9 @@
     <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
     <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
     <col min="32" max="32" customWidth="true" width="20.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="28.6328125"/>
     <col min="34" max="34" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="14.0"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="15.453125"/>
     <col min="36" max="36" bestFit="true" customWidth="true" width="11.90625"/>
     <col min="37" max="39" bestFit="true" customWidth="true" width="17.81640625"/>
     <col min="40" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
@@ -1005,120 +4922,120 @@
         <v>20</v>
       </c>
       <c r="X1" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="AA1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AB1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AC1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AD1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AF1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="AE1" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AF1" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AH1" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="AJ1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="AH1" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="AI1" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="0">
-        <v>40</v>
-      </c>
       <c r="AK1" t="s" s="0">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL1" t="s" s="0">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AM1" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AN1" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="AO1" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="AP1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="AQ1" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="AR1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="AS1" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="AT1" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="AU1" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AV1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="AW1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="AX1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AO1" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="AP1" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="AQ1" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="AR1" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="AS1" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AY1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AU1" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="AV1" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="AW1" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="AX1" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="AY1" t="s" s="0">
-        <v>64</v>
-      </c>
       <c r="AZ1" t="s" s="0">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H2" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>23</v>
@@ -1133,116 +5050,1214 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>98</v>
+        <v>141</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>444444444</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="U2" s="0">
-        <v>33333333333</v>
+        <v>11111111111</v>
       </c>
       <c r="V2" s="3">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="AB2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="AF2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="AI2" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="AQ2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="AC2" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE2" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="AF2" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="AH2" t="s" s="0">
+      <c r="AR2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV2" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="AI2" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="AK2" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="AQ2" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="AR2" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT2" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV2" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX2" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="AB1">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="H1">
+      <selection activeCell="V2" sqref="V2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
     <hyperlink ref="W2" r:id="rId1"/>
-    <hyperlink ref="Z2" r:id="rId2"/>
-    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="Z2" r:id="rId2" display="testEnquiry@test.com"/>
+    <hyperlink ref="G2" r:id="rId3" display="sudhakar@rsoft.in"/>
     <hyperlink ref="AU2" r:id="rId4" display="sudhakar@rsoft.in"/>
     <hyperlink ref="AY2" r:id="rId5" display="testet@rsoft.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.36328125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="18.90625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="AD1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="AJ1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="AL1" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="AM1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="AN1" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="AO1" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="AP1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="AQ1" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="AR1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="AS1" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="AT1" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="AU1" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AV1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="AW1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="AX1" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="AY1" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="AZ1" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="0">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>55555555555</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="U2" s="0">
+        <v>22222222222</v>
+      </c>
+      <c r="V2" s="3">
+        <v>20000</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="AF2" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="AI2" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="AQ2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="AR2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV2" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="J1">
+      <selection activeCell="U2" sqref="U2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.6328125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="AD1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="AJ1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="AL1" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="AM1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="AN1" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="AO1" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="AP1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="AQ1" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="AR1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="AS1" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="AT1" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="AU1" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AV1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="AW1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="AX1" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="AY1" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="AZ1" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="0">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>666666666</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="U2" s="0">
+        <v>33333333333</v>
+      </c>
+      <c r="V2" s="3">
+        <v>30000</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="AF2" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="AI2" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="AQ2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="AR2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV2" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="H1">
+      <selection activeCell="V2" sqref="V2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="AD1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="AJ1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="AL1" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="AM1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="AN1" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="AO1" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="AP1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="AQ1" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="AR1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="AS1" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="AT1" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="AU1" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AV1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="AW1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="AX1" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="AY1" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="AZ1" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="0">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>7777777777</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="U2" s="0">
+        <v>44444444444</v>
+      </c>
+      <c r="V2" s="3">
+        <v>40000</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="AF2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="AI2" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="AQ2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="AR2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV2" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="H1">
+      <selection activeCell="U2" sqref="U2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
+++ b/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="240">
   <si>
     <t>ModuleName</t>
   </si>
@@ -251,259 +251,505 @@
     <t>SMSTriiggerETRS</t>
   </si>
   <si>
+    <t>Ordinary</t>
+  </si>
+  <si>
+    <t>02:35PM</t>
+  </si>
+  <si>
+    <t>2024-01-03</t>
+  </si>
+  <si>
+    <t>AddNew@rsoft.in</t>
+  </si>
+  <si>
+    <t>2024-01-03 05:00 PM</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Urgent</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>Add New Text</t>
+  </si>
+  <si>
+    <t>Summary Add Text</t>
+  </si>
+  <si>
+    <t>Duplicate Text</t>
+  </si>
+  <si>
+    <t>Edit Text</t>
+  </si>
+  <si>
+    <t>SummaryAdd@rsoft.in</t>
+  </si>
+  <si>
+    <t>Duplicate@rsoft.in</t>
+  </si>
+  <si>
+    <t>Duplicatechange@rsoft.in</t>
+  </si>
+  <si>
+    <t>Madras9</t>
+  </si>
+  <si>
+    <t>New Value1</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Sathyan</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Selvi</t>
+  </si>
+  <si>
+    <t>https://www.selenium.dev/</t>
+  </si>
+  <si>
+    <t>https://mvnrepository.com/</t>
+  </si>
+  <si>
+    <t>https://www.rsoft.in/</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>Sujay</t>
+  </si>
+  <si>
+    <t>EditChangeEnquiry@rsoft.in</t>
+  </si>
+  <si>
+    <t>DuplicateEnquiry@crm.in</t>
+  </si>
+  <si>
+    <t>SummaryAddEnquiry@rsoft.in</t>
+  </si>
+  <si>
+    <t>AddNewEnquiry@gmail.com</t>
+  </si>
+  <si>
+    <t>Enquiry about Chatbot</t>
+  </si>
+  <si>
+    <t>Enquiry about Surveyform</t>
+  </si>
+  <si>
+    <t>Enquiry about CRM</t>
+  </si>
+  <si>
+    <t>Enquiry about MobileApp</t>
+  </si>
+  <si>
+    <t>AddNewLead@gmail.com</t>
+  </si>
+  <si>
+    <t>SummaryAddLead@gmail.com</t>
+  </si>
+  <si>
+    <t>DuplicateLead@gmail.com</t>
+  </si>
+  <si>
+    <t>EditChangeLead@gmail.com</t>
+  </si>
+  <si>
+    <t>Lead about MobileApp</t>
+  </si>
+  <si>
+    <t>Lead about CRM</t>
+  </si>
+  <si>
+    <t>Lead about Surveyform</t>
+  </si>
+  <si>
+    <t>Lead about Chatbot</t>
+  </si>
+  <si>
+    <t>AddNewSales@gmail.com</t>
+  </si>
+  <si>
+    <t>SummaryAddSales@gmail.com</t>
+  </si>
+  <si>
+    <t>DuplicateSales@gmail.com</t>
+  </si>
+  <si>
+    <t>EditChangeSales@gmail.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2024-01-04</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2024-01-04 06:00 PM</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
+  </si>
+  <si>
+    <t>one,two,three,four,five</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>Ordinary</t>
-  </si>
-  <si>
-    <t>02:35PM</t>
-  </si>
-  <si>
-    <t>2024-01-03</t>
-  </si>
-  <si>
-    <t>AddNew@rsoft.in</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00 PM</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Urgent</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>Vijay</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>Add New Text</t>
-  </si>
-  <si>
-    <t>Summary Add Text</t>
-  </si>
-  <si>
-    <t>Duplicate Text</t>
-  </si>
-  <si>
-    <t>Edit Text</t>
-  </si>
-  <si>
-    <t>SummaryAdd@rsoft.in</t>
-  </si>
-  <si>
-    <t>Duplicate@rsoft.in</t>
-  </si>
-  <si>
-    <t>Duplicatechange@rsoft.in</t>
-  </si>
-  <si>
-    <t>Madras9</t>
-  </si>
-  <si>
-    <t>New Value1</t>
-  </si>
-  <si>
-    <t>Tripura</t>
-  </si>
-  <si>
-    <t>Sikkim</t>
-  </si>
-  <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Sathyan</t>
-  </si>
-  <si>
-    <t>Prof.</t>
-  </si>
-  <si>
-    <t>Ms.</t>
-  </si>
-  <si>
-    <t>Selvi</t>
-  </si>
-  <si>
-    <t>https://www.selenium.dev/</t>
-  </si>
-  <si>
-    <t>https://mvnrepository.com/</t>
-  </si>
-  <si>
-    <t>https://www.rsoft.in/</t>
-  </si>
-  <si>
-    <t>Annie</t>
-  </si>
-  <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>Mohammed</t>
-  </si>
-  <si>
-    <t>Sujay</t>
-  </si>
-  <si>
-    <t>EditChangeEnquiry@rsoft.in</t>
-  </si>
-  <si>
-    <t>DuplicateEnquiry@crm.in</t>
-  </si>
-  <si>
-    <t>SummaryAddEnquiry@rsoft.in</t>
-  </si>
-  <si>
-    <t>AddNewEnquiry@gmail.com</t>
-  </si>
-  <si>
-    <t>Enquiry about Chatbot</t>
-  </si>
-  <si>
-    <t>Enquiry about Surveyform</t>
-  </si>
-  <si>
-    <t>Enquiry about CRM</t>
-  </si>
-  <si>
-    <t>Enquiry about MobileApp</t>
-  </si>
-  <si>
-    <t>AddNewLead@gmail.com</t>
-  </si>
-  <si>
-    <t>SummaryAddLead@gmail.com</t>
-  </si>
-  <si>
-    <t>DuplicateLead@gmail.com</t>
-  </si>
-  <si>
-    <t>EditChangeLead@gmail.com</t>
-  </si>
-  <si>
-    <t>Lead about MobileApp</t>
-  </si>
-  <si>
-    <t>Lead about CRM</t>
-  </si>
-  <si>
-    <t>Lead about Surveyform</t>
-  </si>
-  <si>
-    <t>Lead about Chatbot</t>
-  </si>
-  <si>
-    <t>AddNewSales@gmail.com</t>
-  </si>
-  <si>
-    <t>SummaryAddSales@gmail.com</t>
-  </si>
-  <si>
-    <t>DuplicateSales@gmail.com</t>
-  </si>
-  <si>
-    <t>EditChangeSales@gmail.com</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2024-01-04</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>6518169632</t>
-  </si>
-  <si>
-    <t>7954212669</t>
-  </si>
-  <si>
-    <t>6887216707</t>
-  </si>
-  <si>
-    <t>1919943953</t>
-  </si>
-  <si>
-    <t>2024-01-04 06:00 PM</t>
-  </si>
-  <si>
-    <t>9283471332</t>
-  </si>
-  <si>
-    <t>4343014239</t>
-  </si>
-  <si>
-    <t>2272468729</t>
-  </si>
-  <si>
-    <t>7616863550</t>
-  </si>
-  <si>
-    <t>8058629509</t>
-  </si>
-  <si>
-    <t>6477939991</t>
-  </si>
-  <si>
-    <t>2700046975</t>
-  </si>
-  <si>
-    <t>3947424056</t>
-  </si>
-  <si>
-    <t>4897294512</t>
-  </si>
-  <si>
-    <t>2429093846</t>
-  </si>
-  <si>
-    <t>3730501090</t>
-  </si>
-  <si>
-    <t>4533527006</t>
-  </si>
-  <si>
-    <t>0863988599</t>
-  </si>
-  <si>
-    <t>9130328203</t>
-  </si>
-  <si>
-    <t>2097132337</t>
-  </si>
-  <si>
-    <t>2439395860</t>
+    <t>2024-01-05 02:00 PM</t>
+  </si>
+  <si>
+    <t>6820966816</t>
+  </si>
+  <si>
+    <t>9694684691</t>
+  </si>
+  <si>
+    <t>0635795122</t>
+  </si>
+  <si>
+    <t>0201444785</t>
+  </si>
+  <si>
+    <t>2024-01-05 03:00 PM</t>
+  </si>
+  <si>
+    <t>1589309794</t>
+  </si>
+  <si>
+    <t>3507213354</t>
+  </si>
+  <si>
+    <t>5807195198</t>
+  </si>
+  <si>
+    <t>5921687703</t>
+  </si>
+  <si>
+    <t>6574088586</t>
+  </si>
+  <si>
+    <t>3877991395</t>
+  </si>
+  <si>
+    <t>3908041833</t>
+  </si>
+  <si>
+    <t>7241050360</t>
+  </si>
+  <si>
+    <t>8350133228</t>
+  </si>
+  <si>
+    <t>2605380276</t>
+  </si>
+  <si>
+    <t>8414849651</t>
+  </si>
+  <si>
+    <t>4275296024</t>
+  </si>
+  <si>
+    <t>9750156129</t>
+  </si>
+  <si>
+    <t>3331957422</t>
+  </si>
+  <si>
+    <t>4627678793</t>
+  </si>
+  <si>
+    <t>7851193426</t>
+  </si>
+  <si>
+    <t>5564063740</t>
+  </si>
+  <si>
+    <t>0092857899</t>
+  </si>
+  <si>
+    <t>5027054236</t>
+  </si>
+  <si>
+    <t>2776637441</t>
+  </si>
+  <si>
+    <t>3590823770</t>
+  </si>
+  <si>
+    <t>7986294436</t>
+  </si>
+  <si>
+    <t>6755692645</t>
+  </si>
+  <si>
+    <t>9831742784</t>
+  </si>
+  <si>
+    <t>1461398396</t>
+  </si>
+  <si>
+    <t>5656623773</t>
+  </si>
+  <si>
+    <t>2006870037</t>
+  </si>
+  <si>
+    <t>6094587368</t>
+  </si>
+  <si>
+    <t>3662084668</t>
+  </si>
+  <si>
+    <t>2689920376</t>
+  </si>
+  <si>
+    <t>0714122280</t>
+  </si>
+  <si>
+    <t>6083417379</t>
+  </si>
+  <si>
+    <t>2234228187</t>
+  </si>
+  <si>
+    <t>4002574279</t>
+  </si>
+  <si>
+    <t>5581456418</t>
+  </si>
+  <si>
+    <t>7040127455</t>
+  </si>
+  <si>
+    <t>7319396790</t>
+  </si>
+  <si>
+    <t>0851988543</t>
+  </si>
+  <si>
+    <t>3237847572</t>
+  </si>
+  <si>
+    <t>8922858625</t>
+  </si>
+  <si>
+    <t>5823850720</t>
+  </si>
+  <si>
+    <t>0849435847</t>
+  </si>
+  <si>
+    <t>5251750372</t>
+  </si>
+  <si>
+    <t>0157658607</t>
+  </si>
+  <si>
+    <t>2024-01-05 04:00 PM</t>
+  </si>
+  <si>
+    <t>2978800366</t>
+  </si>
+  <si>
+    <t>9251636057</t>
+  </si>
+  <si>
+    <t>1933126746</t>
+  </si>
+  <si>
+    <t>2126211755</t>
+  </si>
+  <si>
+    <t>2728502949</t>
+  </si>
+  <si>
+    <t>0355369440</t>
+  </si>
+  <si>
+    <t>5647243750</t>
+  </si>
+  <si>
+    <t>4247661124</t>
+  </si>
+  <si>
+    <t>7137258359</t>
+  </si>
+  <si>
+    <t>1973253196</t>
+  </si>
+  <si>
+    <t>3714892011</t>
+  </si>
+  <si>
+    <t>9047332382</t>
+  </si>
+  <si>
+    <t>8080418161</t>
+  </si>
+  <si>
+    <t>1373622845</t>
+  </si>
+  <si>
+    <t>3868228840</t>
+  </si>
+  <si>
+    <t>3523055221</t>
+  </si>
+  <si>
+    <t>2024-01-05 05:00 PM</t>
+  </si>
+  <si>
+    <t>2872693970</t>
+  </si>
+  <si>
+    <t>6944976764</t>
+  </si>
+  <si>
+    <t>1763029686</t>
+  </si>
+  <si>
+    <t>3775481885</t>
+  </si>
+  <si>
+    <t>6537253667</t>
+  </si>
+  <si>
+    <t>0394041590</t>
+  </si>
+  <si>
+    <t>0403644657</t>
+  </si>
+  <si>
+    <t>1726391553</t>
+  </si>
+  <si>
+    <t>1196921296</t>
+  </si>
+  <si>
+    <t>5124021195</t>
+  </si>
+  <si>
+    <t>1649304311</t>
+  </si>
+  <si>
+    <t>7220296862</t>
+  </si>
+  <si>
+    <t>9636936543</t>
+  </si>
+  <si>
+    <t>0037715761</t>
+  </si>
+  <si>
+    <t>6786371310</t>
+  </si>
+  <si>
+    <t>3247099693</t>
+  </si>
+  <si>
+    <t>7894069575</t>
+  </si>
+  <si>
+    <t>2110633792</t>
+  </si>
+  <si>
+    <t>4513548955</t>
+  </si>
+  <si>
+    <t>2750042646</t>
+  </si>
+  <si>
+    <t>4689780043</t>
+  </si>
+  <si>
+    <t>1467249606</t>
+  </si>
+  <si>
+    <t>4656884868</t>
+  </si>
+  <si>
+    <t>4856548488</t>
+  </si>
+  <si>
+    <t>0926661357</t>
+  </si>
+  <si>
+    <t>2005406067</t>
+  </si>
+  <si>
+    <t>0789394880</t>
+  </si>
+  <si>
+    <t>3652586788</t>
+  </si>
+  <si>
+    <t>9646671460</t>
+  </si>
+  <si>
+    <t>4845866929</t>
+  </si>
+  <si>
+    <t>1499177741</t>
+  </si>
+  <si>
+    <t>6863444754</t>
+  </si>
+  <si>
+    <t>2024-01-05 06:00 PM</t>
   </si>
 </sst>
 </file>
@@ -576,7 +822,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0E33FD6D-3733-401F-ABD5-832E6309B3FE}" diskRevisions="1" revisionId="401" version="12">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{95F0F3F3-C0CA-4926-83BD-01728D6B6884}" diskRevisions="1" revisionId="404" version="14">
   <header guid="{6A0EF4ED-47BD-46C1-93FD-8103A2945C43}" dateTime="2023-12-29T12:47:43" maxSheetId="2" userName="Sudhakar Rsoft" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -661,6 +907,22 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{6F98FB7D-EDFA-4937-A958-D525E7FB2122}" dateTime="2024-01-05T14:38:20" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId13" minRId="402">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{95F0F3F3-C0CA-4926-83BD-01728D6B6884}" dateTime="2024-01-05T14:41:57" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId14" minRId="403" maxRId="404">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -1066,6 +1328,52 @@
   <rcc rId="401" sId="4">
     <nc r="Q2">
       <v>7777777777</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="402" sId="1">
+    <oc r="I2" t="inlineStr">
+      <is>
+        <t>one</t>
+      </is>
+    </oc>
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>one,two,three,four,five</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="403" sId="1">
+    <oc r="I2" t="inlineStr">
+      <is>
+        <t>one,two,three,four,five</t>
+      </is>
+    </oc>
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>one</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="404" sId="3">
+    <oc r="I2" t="inlineStr">
+      <is>
+        <t>three</t>
+      </is>
+    </oc>
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>one,two,three,four,five</t>
+      </is>
     </nc>
   </rcc>
 </revisions>
@@ -4532,7 +4840,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -4802,7 +5110,7 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5020,22 +5328,22 @@
         <v>43</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>23</v>
@@ -5050,13 +5358,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="Q2" s="0">
         <v>444444444</v>
@@ -5068,7 +5376,7 @@
         <v>38</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U2" s="0">
         <v>11111111111</v>
@@ -5083,28 +5391,28 @@
         <v>49</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AB2" t="s" s="0">
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="AF2" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG2" t="s" s="0">
         <v>71</v>
@@ -5116,7 +5424,7 @@
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="0">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ2" t="s" s="0">
         <v>50</v>
@@ -5128,22 +5436,22 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AV2" t="s" s="0">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="0">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>69</v>
@@ -5171,8 +5479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5395,43 +5703,43 @@
         <v>43</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H2" s="0">
         <v>2</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="N2" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="M2" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="N2" t="s" s="0">
-        <v>135</v>
-      </c>
       <c r="O2" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="Q2" s="0">
         <v>55555555555</v>
@@ -5443,7 +5751,7 @@
         <v>49</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U2" s="0">
         <v>22222222222</v>
@@ -5452,34 +5760,34 @@
         <v>20000</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="Y2" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="AF2" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG2" t="s" s="0">
         <v>71</v>
@@ -5500,22 +5808,22 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AV2" t="s" s="0">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="0">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>69</v>
@@ -5537,7 +5845,7 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5760,43 +6068,43 @@
         <v>43</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2" s="0">
         <v>3</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="J2" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="L2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="M2" t="s" s="0">
         <v>26</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="Q2" s="0">
         <v>666666666</v>
@@ -5805,10 +6113,10 @@
         <v>44</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U2" s="0">
         <v>33333333333</v>
@@ -5817,34 +6125,34 @@
         <v>30000</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="AF2" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG2" t="s" s="0">
         <v>71</v>
@@ -5865,22 +6173,22 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AV2" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="0">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>69</v>
@@ -5901,8 +6209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6125,43 +6433,43 @@
         <v>43</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H2" s="0">
         <v>4</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="Q2" s="0">
         <v>7777777777</v>
@@ -6170,10 +6478,10 @@
         <v>44</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U2" s="0">
         <v>44444444444</v>
@@ -6182,34 +6490,34 @@
         <v>40000</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="0">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="AF2" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG2" t="s" s="0">
         <v>71</v>
@@ -6230,22 +6538,22 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AV2" t="s" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="0">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>69</v>

--- a/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
+++ b/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\RS_CRM\testData\SMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <customWorkbookView name="Sudhakar Rsoft - Personal View" guid="{65A6858D-7219-405D-B85D-01E367F321A3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1030" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="144">
   <si>
     <t>ModuleName</t>
   </si>
@@ -257,21 +257,12 @@
     <t>02:35PM</t>
   </si>
   <si>
-    <t>2024-01-03</t>
-  </si>
-  <si>
     <t>AddNew@rsoft.in</t>
   </si>
   <si>
-    <t>2024-01-03 05:00 PM</t>
-  </si>
-  <si>
     <t>two</t>
   </si>
   <si>
-    <t>Chennai</t>
-  </si>
-  <si>
     <t>Urgent</t>
   </si>
   <si>
@@ -305,9 +296,6 @@
     <t>Duplicate@rsoft.in</t>
   </si>
   <si>
-    <t>Duplicatechange@rsoft.in</t>
-  </si>
-  <si>
     <t>Madras9</t>
   </si>
   <si>
@@ -368,9 +356,6 @@
     <t>Sujay</t>
   </si>
   <si>
-    <t>EditChangeEnquiry@rsoft.in</t>
-  </si>
-  <si>
     <t>DuplicateEnquiry@crm.in</t>
   </si>
   <si>
@@ -401,9 +386,6 @@
     <t>DuplicateLead@gmail.com</t>
   </si>
   <si>
-    <t>EditChangeLead@gmail.com</t>
-  </si>
-  <si>
     <t>Lead about MobileApp</t>
   </si>
   <si>
@@ -425,338 +407,67 @@
     <t>DuplicateSales@gmail.com</t>
   </si>
   <si>
-    <t>EditChangeSales@gmail.com</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2024-01-04</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>2024-01-04 06:00 PM</t>
-  </si>
-  <si>
     <t>2024-01-05</t>
   </si>
   <si>
     <t>one,two,three,four,five</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>2024-01-05 02:00 PM</t>
-  </si>
-  <si>
-    <t>6820966816</t>
-  </si>
-  <si>
-    <t>9694684691</t>
-  </si>
-  <si>
-    <t>0635795122</t>
-  </si>
-  <si>
-    <t>0201444785</t>
-  </si>
-  <si>
-    <t>2024-01-05 03:00 PM</t>
-  </si>
-  <si>
-    <t>1589309794</t>
-  </si>
-  <si>
-    <t>3507213354</t>
-  </si>
-  <si>
-    <t>5807195198</t>
-  </si>
-  <si>
-    <t>5921687703</t>
-  </si>
-  <si>
-    <t>6574088586</t>
-  </si>
-  <si>
-    <t>3877991395</t>
-  </si>
-  <si>
-    <t>3908041833</t>
-  </si>
-  <si>
-    <t>7241050360</t>
-  </si>
-  <si>
-    <t>8350133228</t>
-  </si>
-  <si>
-    <t>2605380276</t>
-  </si>
-  <si>
-    <t>8414849651</t>
-  </si>
-  <si>
-    <t>4275296024</t>
-  </si>
-  <si>
-    <t>9750156129</t>
-  </si>
-  <si>
-    <t>3331957422</t>
-  </si>
-  <si>
-    <t>4627678793</t>
-  </si>
-  <si>
-    <t>7851193426</t>
-  </si>
-  <si>
-    <t>5564063740</t>
-  </si>
-  <si>
-    <t>0092857899</t>
-  </si>
-  <si>
-    <t>5027054236</t>
-  </si>
-  <si>
-    <t>2776637441</t>
-  </si>
-  <si>
-    <t>3590823770</t>
-  </si>
-  <si>
-    <t>7986294436</t>
-  </si>
-  <si>
-    <t>6755692645</t>
-  </si>
-  <si>
-    <t>9831742784</t>
-  </si>
-  <si>
-    <t>1461398396</t>
-  </si>
-  <si>
-    <t>5656623773</t>
-  </si>
-  <si>
-    <t>2006870037</t>
-  </si>
-  <si>
-    <t>6094587368</t>
-  </si>
-  <si>
-    <t>3662084668</t>
-  </si>
-  <si>
-    <t>2689920376</t>
-  </si>
-  <si>
-    <t>0714122280</t>
-  </si>
-  <si>
-    <t>6083417379</t>
-  </si>
-  <si>
-    <t>2234228187</t>
-  </si>
-  <si>
-    <t>4002574279</t>
-  </si>
-  <si>
-    <t>5581456418</t>
-  </si>
-  <si>
-    <t>7040127455</t>
-  </si>
-  <si>
-    <t>7319396790</t>
-  </si>
-  <si>
-    <t>0851988543</t>
-  </si>
-  <si>
-    <t>3237847572</t>
-  </si>
-  <si>
-    <t>8922858625</t>
-  </si>
-  <si>
-    <t>5823850720</t>
-  </si>
-  <si>
-    <t>0849435847</t>
-  </si>
-  <si>
-    <t>5251750372</t>
-  </si>
-  <si>
-    <t>0157658607</t>
-  </si>
-  <si>
-    <t>2024-01-05 04:00 PM</t>
-  </si>
-  <si>
-    <t>2978800366</t>
-  </si>
-  <si>
-    <t>9251636057</t>
-  </si>
-  <si>
-    <t>1933126746</t>
-  </si>
-  <si>
-    <t>2126211755</t>
-  </si>
-  <si>
-    <t>2728502949</t>
-  </si>
-  <si>
-    <t>0355369440</t>
-  </si>
-  <si>
-    <t>5647243750</t>
-  </si>
-  <si>
-    <t>4247661124</t>
-  </si>
-  <si>
-    <t>7137258359</t>
-  </si>
-  <si>
-    <t>1973253196</t>
-  </si>
-  <si>
-    <t>3714892011</t>
-  </si>
-  <si>
-    <t>9047332382</t>
-  </si>
-  <si>
-    <t>8080418161</t>
-  </si>
-  <si>
-    <t>1373622845</t>
-  </si>
-  <si>
-    <t>3868228840</t>
-  </si>
-  <si>
-    <t>3523055221</t>
-  </si>
-  <si>
-    <t>2024-01-05 05:00 PM</t>
-  </si>
-  <si>
-    <t>2872693970</t>
-  </si>
-  <si>
-    <t>6944976764</t>
-  </si>
-  <si>
-    <t>1763029686</t>
-  </si>
-  <si>
-    <t>3775481885</t>
-  </si>
-  <si>
-    <t>6537253667</t>
-  </si>
-  <si>
-    <t>0394041590</t>
-  </si>
-  <si>
-    <t>0403644657</t>
-  </si>
-  <si>
-    <t>1726391553</t>
-  </si>
-  <si>
-    <t>1196921296</t>
-  </si>
-  <si>
-    <t>5124021195</t>
-  </si>
-  <si>
-    <t>1649304311</t>
-  </si>
-  <si>
-    <t>7220296862</t>
-  </si>
-  <si>
-    <t>9636936543</t>
-  </si>
-  <si>
-    <t>0037715761</t>
-  </si>
-  <si>
-    <t>6786371310</t>
-  </si>
-  <si>
-    <t>3247099693</t>
-  </si>
-  <si>
-    <t>7894069575</t>
-  </si>
-  <si>
-    <t>2110633792</t>
-  </si>
-  <si>
-    <t>4513548955</t>
-  </si>
-  <si>
-    <t>2750042646</t>
-  </si>
-  <si>
-    <t>4689780043</t>
-  </si>
-  <si>
-    <t>1467249606</t>
-  </si>
-  <si>
-    <t>4656884868</t>
-  </si>
-  <si>
-    <t>4856548488</t>
-  </si>
-  <si>
-    <t>0926661357</t>
-  </si>
-  <si>
-    <t>2005406067</t>
-  </si>
-  <si>
-    <t>0789394880</t>
-  </si>
-  <si>
-    <t>3652586788</t>
-  </si>
-  <si>
-    <t>9646671460</t>
-  </si>
-  <si>
-    <t>4845866929</t>
-  </si>
-  <si>
-    <t>1499177741</t>
-  </si>
-  <si>
-    <t>6863444754</t>
-  </si>
-  <si>
     <t>2024-01-05 06:00 PM</t>
+  </si>
+  <si>
+    <t>2024-01-08</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2024-01-08 12:19:17 PM</t>
+  </si>
+  <si>
+    <t>8197955133</t>
+  </si>
+  <si>
+    <t>0997061178</t>
+  </si>
+  <si>
+    <t>6472828159</t>
+  </si>
+  <si>
+    <t>4528559388</t>
+  </si>
+  <si>
+    <t>2024-01-08 01:11:51 PM</t>
+  </si>
+  <si>
+    <t>2024-01-08 01:20:11 PM</t>
+  </si>
+  <si>
+    <t>EditSudhakar@rsoft.in</t>
+  </si>
+  <si>
+    <t>Madurai</t>
+  </si>
+  <si>
+    <t>EditEnquiry@test.com</t>
+  </si>
+  <si>
+    <t>EditLead@rsoft.in</t>
+  </si>
+  <si>
+    <t>EditSales@rsoft.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,13 +506,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,7 +542,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{95F0F3F3-C0CA-4926-83BD-01728D6B6884}" diskRevisions="1" revisionId="404" version="14">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F330610D-389B-486B-9539-C4925268920D}" diskRevisions="1" revisionId="439" version="20">
   <header guid="{6A0EF4ED-47BD-46C1-93FD-8103A2945C43}" dateTime="2023-12-29T12:47:43" maxSheetId="2" userName="Sudhakar Rsoft" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -923,6 +643,54 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{3761DEA3-B5B5-4E48-9296-AB79704466A0}" dateTime="2024-01-08T12:17:26" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId15" minRId="405">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7E80655F-CBFA-4B26-BBFB-C8CDBE464255}" dateTime="2024-01-08T15:00:50" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId16" minRId="406" maxRId="439">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C37EF48C-97E4-4F3D-B2E6-BF4EBB4D58DB}" dateTime="2024-01-08T15:07:16" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId17">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6B407437-288D-477E-92F7-386E99038314}" dateTime="2024-01-08T15:07:23" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId18">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7F47E368-FFED-41DC-BB65-9AE952D458AC}" dateTime="2024-01-08T15:07:30" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId19">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F330610D-389B-486B-9539-C4925268920D}" dateTime="2024-01-08T15:07:36" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId20">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -1379,6 +1147,759 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="405" sId="1">
+    <oc r="I2" t="inlineStr">
+      <is>
+        <t>one</t>
+      </is>
+    </oc>
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>two</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="4" s="1" sqref="G3" start="0" length="0">
+    <dxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="406" sId="4">
+    <nc r="N3" t="inlineStr">
+      <is>
+        <t>2024-01-03</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="407" sId="4">
+    <nc r="O3" t="inlineStr">
+      <is>
+        <t>02:35PM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="408" sId="4">
+    <nc r="P3" t="inlineStr">
+      <is>
+        <t>2024-01-03 05:00 PM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="409" sId="4">
+    <nc r="R3" t="inlineStr">
+      <is>
+        <t>annie-spratt</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="410" sId="4">
+    <nc r="S3" t="inlineStr">
+      <is>
+        <t>Mrs.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="411" sId="4">
+    <nc r="T3" t="inlineStr">
+      <is>
+        <t>Sudhakar</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="412" sId="4">
+    <nc r="U3">
+      <v>6666666666</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" sqref="V3" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" s="1" sqref="W3" start="0" length="0">
+    <dxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="413" sId="4" odxf="1" s="1" dxf="1">
+    <nc r="X3" t="inlineStr">
+      <is>
+        <t>Dr.</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="414" sId="4">
+    <nc r="Y3" t="inlineStr">
+      <is>
+        <t>Edit Test Names</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="415" sId="4" odxf="1" s="1" dxf="1">
+    <nc r="Z3" t="inlineStr">
+      <is>
+        <t>EditEnquiry@test.com</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="416" sId="4" odxf="1" s="1" dxf="1">
+    <nc r="AA3" t="inlineStr">
+      <is>
+        <t>Enquired about income</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="417" sId="4" odxf="1" dxf="1">
+    <nc r="AB3" t="inlineStr">
+      <is>
+        <t>RSoft World-Class CRM Software (Customer Relationship Management) solution has been helping all kinds of small and medium businesses to organise, automate and improve their business. Our 15+ years of experience in Sales and Marketing. RSoft makes your business run transparently and intelligently which projects your brand image and win your customers satisfaction. RSoft is way ahead of other CRM's with its new generation features.</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="418" sId="4">
+    <nc r="AC3" t="inlineStr">
+      <is>
+        <t>2024-01-03</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="419" sId="4" odxf="1" quotePrefix="1">
+    <nc r="AD3" t="inlineStr">
+      <is>
+        <t>+60</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="420" sId="4">
+    <nc r="AE3" t="inlineStr">
+      <is>
+        <t>2562299660</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="421" sId="4">
+    <nc r="AF3" t="inlineStr">
+      <is>
+        <t>Urgent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="422" sId="4">
+    <nc r="AG3" t="inlineStr">
+      <is>
+        <t>Every time the record is modified</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="423" sId="4">
+    <nc r="AH3" t="inlineStr">
+      <is>
+        <t>Send SMS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="424" sId="4">
+    <nc r="AI3" t="inlineStr">
+      <is>
+        <t>SMSTriiggerETRM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="425" sId="4">
+    <nc r="AQ3" t="inlineStr">
+      <is>
+        <t>CRMNotification</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="426" sId="4">
+    <nc r="AR3" t="inlineStr">
+      <is>
+        <t>IndividualTextEdited</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="427" sId="4" odxf="1" quotePrefix="1">
+    <nc r="AS3" t="inlineStr">
+      <is>
+        <t>+91</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="428" sId="4">
+    <nc r="AT3" t="inlineStr">
+      <is>
+        <t>2430732637</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="429" sId="4" odxf="1" s="1" dxf="1">
+    <nc r="AU3" t="inlineStr">
+      <is>
+        <t>EditLead@rsoft.in</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="430" sId="4" odxf="1" quotePrefix="1">
+    <nc r="AW3" t="inlineStr">
+      <is>
+        <t>+60</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="431" sId="4">
+    <nc r="AX3" t="inlineStr">
+      <is>
+        <t>2774830371</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="432" sId="4" odxf="1" s="1" dxf="1">
+    <nc r="AY3" t="inlineStr">
+      <is>
+        <t>EditSales@rsoft.in</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="433" sId="4" odxf="1" dxf="1">
+    <nc r="AZ3" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> Hi, Thanks for contacting RSoft. Test Automation ensures quality of the app and maximum test coverage and validation. </t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="434" sId="4">
+    <oc r="G2" t="inlineStr">
+      <is>
+        <t>Duplicatechange@rsoft.in</t>
+      </is>
+    </oc>
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>EditSudhakar@rsoft.in</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="435" sId="4">
+    <oc r="J2" t="inlineStr">
+      <is>
+        <t>Chennai</t>
+      </is>
+    </oc>
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>Madurai</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="436" sId="4">
+    <oc r="Z2" t="inlineStr">
+      <is>
+        <t>EditChangeEnquiry@rsoft.in</t>
+      </is>
+    </oc>
+    <nc r="Z2" t="inlineStr">
+      <is>
+        <t>EditEnquiry@test.com</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="437" sId="4">
+    <oc r="AU2" t="inlineStr">
+      <is>
+        <t>EditChangeLead@gmail.com</t>
+      </is>
+    </oc>
+    <nc r="AU2" t="inlineStr">
+      <is>
+        <t>EditLead@rsoft.in</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="438" sId="4">
+    <oc r="AY2" t="inlineStr">
+      <is>
+        <t>EditChangeSales@gmail.com</t>
+      </is>
+    </oc>
+    <nc r="AY2" t="inlineStr">
+      <is>
+        <t>EditSales@rsoft.in</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="439" sId="4" ref="A3:XFD3" action="deleteRow">
+    <rfmt sheetId="4" xfDxf="1" sqref="A3:XFD3" start="0" length="0"/>
+    <rfmt sheetId="4" s="1" sqref="G3" start="0" length="0">
+      <dxf>
+        <font>
+          <u/>
+          <sz val="11"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="4">
+      <nc r="N3" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="O3" t="inlineStr">
+        <is>
+          <t>02:35PM</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="P3" t="inlineStr">
+        <is>
+          <t>2024-01-03 05:00 PM</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="R3" t="inlineStr">
+        <is>
+          <t>annie-spratt</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="S3" t="inlineStr">
+        <is>
+          <t>Mrs.</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="T3" t="inlineStr">
+        <is>
+          <t>Sudhakar</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="U3">
+        <v>6666666666</v>
+      </nc>
+    </rcc>
+    <rfmt sheetId="4" sqref="V3" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="3" formatCode="#,##0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="4" s="1" sqref="W3" start="0" length="0">
+      <dxf>
+        <font>
+          <u/>
+          <sz val="11"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="4" s="1" dxf="1">
+      <nc r="X3" t="inlineStr">
+        <is>
+          <t>Dr.</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <u/>
+          <sz val="11"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="Y3" t="inlineStr">
+        <is>
+          <t>Edit Test Names</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4" s="1" dxf="1">
+      <nc r="Z3" t="inlineStr">
+        <is>
+          <t>EditEnquiry@test.com</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <u/>
+          <sz val="11"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" s="1" dxf="1">
+      <nc r="AA3" t="inlineStr">
+        <is>
+          <t>Enquired about income</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <u/>
+          <sz val="11"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="AB3" t="inlineStr">
+        <is>
+          <t>RSoft World-Class CRM Software (Customer Relationship Management) solution has been helping all kinds of small and medium businesses to organise, automate and improve their business. Our 15+ years of experience in Sales and Marketing. RSoft makes your business run transparently and intelligently which projects your brand image and win your customers satisfaction. RSoft is way ahead of other CRM's with its new generation features.</t>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AC3" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4" quotePrefix="1">
+      <nc r="AD3" t="inlineStr">
+        <is>
+          <t>+60</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AE3" t="inlineStr">
+        <is>
+          <t>2562299660</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AF3" t="inlineStr">
+        <is>
+          <t>Urgent</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AG3" t="inlineStr">
+        <is>
+          <t>Every time the record is modified</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AH3" t="inlineStr">
+        <is>
+          <t>Send SMS</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AI3" t="inlineStr">
+        <is>
+          <t>SMSTriiggerETRM</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AQ3" t="inlineStr">
+        <is>
+          <t>CRMNotification</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AR3" t="inlineStr">
+        <is>
+          <t>IndividualTextEdited</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4" quotePrefix="1">
+      <nc r="AS3" t="inlineStr">
+        <is>
+          <t>+91</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AT3" t="inlineStr">
+        <is>
+          <t>2430732637</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4" s="1" dxf="1">
+      <nc r="AU3" t="inlineStr">
+        <is>
+          <t>EditLead@rsoft.in</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <u/>
+          <sz val="11"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" quotePrefix="1">
+      <nc r="AW3" t="inlineStr">
+        <is>
+          <t>+60</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AX3" t="inlineStr">
+        <is>
+          <t>2774830371</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4" s="1" dxf="1">
+      <nc r="AY3" t="inlineStr">
+        <is>
+          <t>EditSales@rsoft.in</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <u/>
+          <sz val="11"/>
+          <color theme="10"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="AZ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hi, Thanks for contacting RSoft. Test Automation ensures quality of the app and maximum test coverage and validation. </t>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="4" sqref="A1:XFD1048576">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="3" sqref="A1:XFD1048576">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="2" sqref="A1:XFD1048576">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1" sId="1">
@@ -1441,6 +1962,16 @@
     </oc>
     <nc r="AT2"/>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="A1:XFD1048576">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
 </revisions>
 </file>
 
@@ -5109,351 +5640,356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.90625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="30.453125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.453125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1796875"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.7265625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
-    <col min="32" max="32" customWidth="true" width="20.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="28.6328125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="15.453125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="45" max="45" customWidth="true" width="18.0"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="10.26953125"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="52" max="52" customWidth="true" width="25.81640625"/>
+    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="2"/>
+    <col min="9" max="9" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.7265625" style="2"/>
+    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="2"/>
+    <col min="16" max="16" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="2"/>
+    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.453125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18" style="2" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.81640625" style="2" customWidth="1"/>
+    <col min="53" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AU1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AV1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AW1" t="s" s="0">
+      <c r="AW1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AX1" t="s" s="0">
+      <c r="AX1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" t="s" s="0">
+      <c r="AY1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" t="s" s="0">
+      <c r="AZ1" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>235</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>444444444</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="2">
+        <v>11111111111</v>
+      </c>
+      <c r="V2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="P2" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>444444444</v>
-      </c>
-      <c r="R2" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="U2" s="0">
-        <v>11111111111</v>
-      </c>
-      <c r="V2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA2" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="AB2" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="AC2" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE2" t="s" s="0">
-        <v>236</v>
-      </c>
-      <c r="AF2" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="AH2" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="AI2" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="AK2" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="AQ2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="AR2" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT2" t="s" s="0">
-        <v>237</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV2" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX2" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5479,353 +6015,354 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.36328125"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="18.90625"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AU1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AV1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AW1" t="s" s="0">
+      <c r="AW1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AX1" t="s" s="0">
+      <c r="AX1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" t="s" s="0">
+      <c r="AY1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" t="s" s="0">
+      <c r="AZ1" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>235</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="0">
+      <c r="H2" s="2">
         <v>2</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="J2" t="s" s="0">
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="L2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>55555555555</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="U2" s="2">
+        <v>22222222222</v>
+      </c>
+      <c r="V2" s="5">
+        <v>20000</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M2" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="N2" t="s" s="0">
+      <c r="AF2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="P2" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>55555555555</v>
-      </c>
-      <c r="R2" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="T2" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="U2" s="0">
-        <v>22222222222</v>
-      </c>
-      <c r="V2" s="3">
-        <v>20000</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y2" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE2" t="s" s="0">
-        <v>236</v>
-      </c>
-      <c r="AF2" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="AH2" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="AI2" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="AQ2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="AR2" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT2" t="s" s="0">
-        <v>237</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV2" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX2" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5844,353 +6381,354 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.6328125"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AU1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AV1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AW1" t="s" s="0">
+      <c r="AW1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AX1" t="s" s="0">
+      <c r="AX1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" t="s" s="0">
+      <c r="AY1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" t="s" s="0">
+      <c r="AZ1" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>235</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="0">
+      <c r="H2" s="2">
         <v>3</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>137</v>
-      </c>
-      <c r="J2" t="s" s="0">
+      <c r="I2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="L2" t="s" s="0">
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>666666666</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M2" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s" s="0">
+      <c r="T2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="2">
+        <v>33333333333</v>
+      </c>
+      <c r="V2" s="5">
+        <v>30000</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="P2" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>666666666</v>
-      </c>
-      <c r="R2" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="T2" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="U2" s="0">
-        <v>33333333333</v>
-      </c>
-      <c r="V2" s="3">
-        <v>30000</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y2" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE2" t="s" s="0">
-        <v>236</v>
-      </c>
-      <c r="AF2" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="AH2" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="AI2" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="AQ2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="AR2" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT2" t="s" s="0">
-        <v>237</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV2" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX2" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6209,353 +6747,354 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="16.7265625"/>
+    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AU1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AV1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AW1" t="s" s="0">
+      <c r="AW1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AX1" t="s" s="0">
+      <c r="AX1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" t="s" s="0">
+      <c r="AY1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" t="s" s="0">
+      <c r="AZ1" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>235</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="0">
+      <c r="F2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="2">
         <v>4</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s" s="0">
+      <c r="I2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="M2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>7777777777</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="T2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="U2" s="2">
+        <v>44444444444</v>
+      </c>
+      <c r="V2" s="5">
+        <v>40000</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="P2" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>7777777777</v>
-      </c>
-      <c r="R2" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="T2" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="U2" s="0">
-        <v>44444444444</v>
-      </c>
-      <c r="V2" s="3">
-        <v>40000</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE2" t="s" s="0">
-        <v>236</v>
-      </c>
-      <c r="AF2" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="AH2" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="AI2" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="AQ2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="AR2" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT2" t="s" s="0">
-        <v>237</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV2" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX2" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>69</v>
       </c>
     </row>

--- a/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
+++ b/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
@@ -5371,7 +5371,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -5640,8 +5640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1:AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6015,8 +6015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6381,8 +6381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6747,8 +6747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
+++ b/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\RS_CRM\testData\SMS\"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
     <customWorkbookView name="Sudhakar Rsoft - Personal View" guid="{65A6858D-7219-405D-B85D-01E367F321A3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1030" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="165">
   <si>
     <t>ModuleName</t>
   </si>
@@ -462,12 +462,76 @@
   </si>
   <si>
     <t>EditSales@rsoft.in</t>
+  </si>
+  <si>
+    <t>6318269190</t>
+  </si>
+  <si>
+    <t>6961131851</t>
+  </si>
+  <si>
+    <t>3399023399</t>
+  </si>
+  <si>
+    <t>0475808348</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-01-23</t>
+  </si>
+  <si>
+    <t>2024-01-23 03:44:10 PM</t>
+  </si>
+  <si>
+    <t>2024-01-23 03:53:08 PM</t>
+  </si>
+  <si>
+    <t>4607281386</t>
+  </si>
+  <si>
+    <t>9452682377</t>
+  </si>
+  <si>
+    <t>3042502073</t>
+  </si>
+  <si>
+    <t>0024473852</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2024-02-16 12:32:23 PM</t>
+  </si>
+  <si>
+    <t>2024-02-16 12:40:33 PM</t>
+  </si>
+  <si>
+    <t>3289716124</t>
+  </si>
+  <si>
+    <t>7196513126</t>
+  </si>
+  <si>
+    <t>6298370699</t>
+  </si>
+  <si>
+    <t>1102077367</t>
+  </si>
+  <si>
+    <t>2024-02-16 12:50:51 PM</t>
+  </si>
+  <si>
+    <t>2024-02-16 12:59:01 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5646,53 +5710,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="2"/>
-    <col min="9" max="9" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.7265625" style="2"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="2"/>
-    <col min="16" max="16" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="2"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.453125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18" style="2" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.81640625" style="2" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="29.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="30.453125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" style="2" width="8.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="13" style="2" width="8.7265625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" style="2" width="8.7265625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" style="2" width="8.7265625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" customWidth="true" style="2" width="20.453125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="28.6328125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="14.90625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="15.453125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.0"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" customWidth="true" style="2" width="25.81640625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -5869,8 +5933,8 @@
       <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>133</v>
+      <c r="F2" t="s" s="2">
+        <v>159</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -5893,14 +5957,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>137</v>
+      <c r="P2" t="s" s="2">
+        <v>163</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -5938,14 +6002,14 @@
       <c r="AB2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>130</v>
+      <c r="AC2" t="s" s="2">
+        <v>156</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>134</v>
+      <c r="AE2" t="s" s="2">
+        <v>160</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -5959,8 +6023,8 @@
       <c r="AI2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>125</v>
+      <c r="AK2" t="s" s="2">
+        <v>148</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>50</v>
@@ -5971,8 +6035,8 @@
       <c r="AS2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>135</v>
+      <c r="AT2" t="s" s="2">
+        <v>161</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -5983,8 +6047,8 @@
       <c r="AW2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>136</v>
+      <c r="AX2" t="s" s="2">
+        <v>162</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6021,54 +6085,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.36328125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.90625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -6245,8 +6309,8 @@
       <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>133</v>
+      <c r="F2" t="s" s="2">
+        <v>159</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6269,14 +6333,14 @@
       <c r="M2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>138</v>
+      <c r="P2" t="s" s="2">
+        <v>164</v>
       </c>
       <c r="Q2" s="2">
         <v>55555555555</v>
@@ -6314,14 +6378,14 @@
       <c r="AB2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>130</v>
+      <c r="AC2" t="s" s="2">
+        <v>156</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>134</v>
+      <c r="AE2" t="s" s="2">
+        <v>160</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6344,8 +6408,8 @@
       <c r="AS2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>135</v>
+      <c r="AT2" t="s" s="2">
+        <v>161</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6356,8 +6420,8 @@
       <c r="AW2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>136</v>
+      <c r="AX2" t="s" s="2">
+        <v>162</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -6387,54 +6451,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="12.6328125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -6611,8 +6675,8 @@
       <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>133</v>
+      <c r="F2" t="s" s="2">
+        <v>159</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -6635,14 +6699,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>132</v>
+      <c r="P2" t="s" s="2">
+        <v>164</v>
       </c>
       <c r="Q2" s="2">
         <v>666666666</v>
@@ -6680,14 +6744,14 @@
       <c r="AB2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>130</v>
+      <c r="AC2" t="s" s="2">
+        <v>156</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>134</v>
+      <c r="AE2" t="s" s="2">
+        <v>160</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -6710,8 +6774,8 @@
       <c r="AS2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>135</v>
+      <c r="AT2" t="s" s="2">
+        <v>161</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -6722,8 +6786,8 @@
       <c r="AW2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>136</v>
+      <c r="AX2" t="s" s="2">
+        <v>162</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -6753,54 +6817,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="8.0"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -6977,8 +7041,8 @@
       <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>133</v>
+      <c r="F2" t="s" s="2">
+        <v>159</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>139</v>
@@ -7001,14 +7065,14 @@
       <c r="M2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>129</v>
+      <c r="N2" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>164</v>
       </c>
       <c r="Q2" s="2">
         <v>7777777777</v>
@@ -7046,14 +7110,14 @@
       <c r="AB2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>127</v>
+      <c r="AC2" t="s" s="2">
+        <v>156</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>134</v>
+      <c r="AE2" t="s" s="2">
+        <v>160</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7076,8 +7140,8 @@
       <c r="AS2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>135</v>
+      <c r="AT2" t="s" s="2">
+        <v>161</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>142</v>
@@ -7088,8 +7152,8 @@
       <c r="AW2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>136</v>
+      <c r="AX2" t="s" s="2">
+        <v>162</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>143</v>

--- a/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
+++ b/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="175">
   <si>
     <t>ModuleName</t>
   </si>
@@ -525,6 +525,36 @@
   </si>
   <si>
     <t>2024-02-16 12:59:01 PM</t>
+  </si>
+  <si>
+    <t>4169897104</t>
+  </si>
+  <si>
+    <t>2835679243</t>
+  </si>
+  <si>
+    <t>9341419469</t>
+  </si>
+  <si>
+    <t>5300619648</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>02:35:55 PM</t>
+  </si>
+  <si>
+    <t>2024-03-06 07:16:02 PM</t>
+  </si>
+  <si>
+    <t>CurrentTime</t>
+  </si>
+  <si>
+    <t>CT. Wed, Mar 06, 2024 at 7:21 PM</t>
   </si>
 </sst>
 </file>
@@ -5913,8 +5943,8 @@
       <c r="AY1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>68</v>
+      <c r="AZ1" t="s" s="2">
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="72.5" x14ac:dyDescent="0.35">
@@ -5934,7 +5964,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -5958,13 +5988,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6003,13 +6033,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6024,7 +6054,7 @@
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>50</v>
@@ -6036,7 +6066,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6048,13 +6078,13 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>69</v>
+      <c r="AZ2" t="s" s="2">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6310,7 +6340,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6385,7 +6415,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6409,7 +6439,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6421,7 +6451,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -6676,7 +6706,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -6751,7 +6781,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -6775,7 +6805,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -6787,7 +6817,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7042,7 +7072,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>139</v>
@@ -7117,7 +7147,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7141,7 +7171,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>142</v>
@@ -7153,7 +7183,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>143</v>

--- a/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
+++ b/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="185">
   <si>
     <t>ModuleName</t>
   </si>
@@ -555,6 +555,36 @@
   </si>
   <si>
     <t>CT. Wed, Mar 06, 2024 at 7:21 PM</t>
+  </si>
+  <si>
+    <t>8528414391</t>
+  </si>
+  <si>
+    <t>9184339273</t>
+  </si>
+  <si>
+    <t>8290721688</t>
+  </si>
+  <si>
+    <t>4264100494</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>2024-04-28 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 1:36 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 1:44 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 1:54 PM</t>
   </si>
 </sst>
 </file>
@@ -5964,7 +5994,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -5988,13 +6018,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>171</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6033,13 +6063,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6054,7 +6084,7 @@
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>50</v>
@@ -6066,7 +6096,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6078,13 +6108,13 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6319,8 +6349,8 @@
       <c r="AY1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>68</v>
+      <c r="AZ1" t="s" s="2">
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
@@ -6340,7 +6370,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6364,13 +6394,13 @@
         <v>95</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="Q2" s="2">
         <v>55555555555</v>
@@ -6409,13 +6439,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6439,7 +6469,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6451,13 +6481,13 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>69</v>
+      <c r="AZ2" t="s" s="2">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -6685,8 +6715,8 @@
       <c r="AY1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>68</v>
+      <c r="AZ1" t="s" s="2">
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
@@ -6706,7 +6736,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -6730,13 +6760,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="Q2" s="2">
         <v>666666666</v>
@@ -6775,13 +6805,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -6805,7 +6835,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -6817,13 +6847,13 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>69</v>
+      <c r="AZ2" t="s" s="2">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -7051,8 +7081,8 @@
       <c r="AY1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>68</v>
+      <c r="AZ1" t="s" s="2">
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
@@ -7072,7 +7102,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>139</v>
@@ -7096,13 +7126,13 @@
         <v>95</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="Q2" s="2">
         <v>7777777777</v>
@@ -7141,13 +7171,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7171,7 +7201,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>142</v>
@@ -7183,13 +7213,13 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>69</v>
+      <c r="AZ2" t="s" s="2">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
+++ b/testData/SMS/WF5_Send_SMS_ETR_S_Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Rsoft - Personal View" guid="{DE6E5057-7951-4F1C-915C-5C0EFDC06FD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="776" activeSheetId="4"/>
     <customWorkbookView name="Sudhakar Rsoft - Personal View" guid="{65A6858D-7219-405D-B85D-01E367F321A3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1030" activeSheetId="1"/>
-    <customWorkbookView name="Rsoft - Personal View" guid="{DE6E5057-7951-4F1C-915C-5C0EFDC06FD2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="776" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="149">
   <si>
     <t>ModuleName</t>
   </si>
@@ -288,9 +288,6 @@
     <t>Duplicate@rsoft.in</t>
   </si>
   <si>
-    <t>New Value1</t>
-  </si>
-  <si>
     <t>Tripura</t>
   </si>
   <si>
@@ -300,12 +297,6 @@
     <t>Telangana</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
     <t>OFF</t>
   </si>
   <si>
@@ -396,9 +387,6 @@
     <t>DuplicateSales@gmail.com</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>one,two,three,four,five</t>
   </si>
   <si>
@@ -426,33 +414,12 @@
     <t>4</t>
   </si>
   <si>
-    <t>9840052605</t>
-  </si>
-  <si>
-    <t>9840092339</t>
-  </si>
-  <si>
-    <t>9840087608</t>
-  </si>
-  <si>
-    <t>9840042177</t>
-  </si>
-  <si>
     <t>2024-07-10</t>
   </si>
   <si>
     <t>2024-07-13 05:00:00 PM</t>
   </si>
   <si>
-    <t>CT: Wed, Jul 10, 2024 at 2:04 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Jul 10, 2024 at 2:12 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Jul 10, 2024 at 2:21 PM</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -465,33 +432,6 @@
     <t>40000</t>
   </si>
   <si>
-    <t>Madras</t>
-  </si>
-  <si>
-    <t>9840023407</t>
-  </si>
-  <si>
-    <t>9840020088</t>
-  </si>
-  <si>
-    <t>9840060204</t>
-  </si>
-  <si>
-    <t>9840055886</t>
-  </si>
-  <si>
-    <t>9840061463</t>
-  </si>
-  <si>
-    <t>9840071318</t>
-  </si>
-  <si>
-    <t>9840055164</t>
-  </si>
-  <si>
-    <t>9840050561</t>
-  </si>
-  <si>
     <t>CT: Wed, Jul 10, 2024 at 3:39 PM</t>
   </si>
   <si>
@@ -499,6 +439,45 @@
   </si>
   <si>
     <t>CT: Wed, Jul 10, 2024 at 3:55 PM</t>
+  </si>
+  <si>
+    <t>9840034710</t>
+  </si>
+  <si>
+    <t>9840036308</t>
+  </si>
+  <si>
+    <t>9840072405</t>
+  </si>
+  <si>
+    <t>9840092279</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>9840074087</t>
+  </si>
+  <si>
+    <t>9840001239</t>
+  </si>
+  <si>
+    <t>9840031496</t>
+  </si>
+  <si>
+    <t>9840027339</t>
+  </si>
+  <si>
+    <t>9840052904</t>
+  </si>
+  <si>
+    <t>9840011254</t>
+  </si>
+  <si>
+    <t>9840069148</t>
+  </si>
+  <si>
+    <t>9840080575</t>
   </si>
 </sst>
 </file>
@@ -580,48 +559,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4DA20B61-8C91-4642-AA60-D60F92520B43}" diskRevisions="1" revisionId="448" version="26">
-  <header guid="{80767539-EC2B-408B-B684-BA3E22E60529}" dateTime="2024-07-10T14:40:46" maxSheetId="5" userName="Rsoft" r:id="rId21" minRId="440" maxRId="443">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{086A0E1E-7B7B-4905-9F17-87FD7827E3A6}" dateTime="2024-07-10T14:41:31" maxSheetId="5" userName="Rsoft" r:id="rId22" minRId="444">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2BA28165-78CD-47F5-BB18-A62E43A0A558}" dateTime="2024-07-10T14:41:47" maxSheetId="5" userName="Rsoft" r:id="rId23" minRId="445">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{83722646-BDA2-4863-A69C-AB254753B9C0}" dateTime="2024-07-10T14:42:01" maxSheetId="5" userName="Rsoft" r:id="rId24" minRId="446">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1CE74450-35D6-4A24-B9D5-E4A49259E8C0}" dateTime="2024-07-10T14:42:10" maxSheetId="5" userName="Rsoft" r:id="rId25" minRId="447">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4DA20B61-8C91-4642-AA60-D60F92520B43}" dateTime="2024-07-10T14:47:09" maxSheetId="5" userName="Rsoft" r:id="rId26" minRId="448">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{454BC425-9FE9-486D-8946-E0030E631651}" diskRevisions="1" revisionId="453" version="27">
+  <header guid="{454BC425-9FE9-486D-8946-E0030E631651}" dateTime="2025-01-12T01:21:26" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId27" minRId="449" maxRId="453">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -632,113 +571,67 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="448" sId="2">
+  <rcc rId="449" sId="3">
+    <oc r="L2" t="inlineStr">
+      <is>
+        <t>AA</t>
+      </is>
+    </oc>
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>India</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="450" sId="3">
     <oc r="J2" t="inlineStr">
       <is>
-        <t>Madras9</t>
+        <t>New Value1</t>
       </is>
     </oc>
     <nc r="J2" t="inlineStr">
       <is>
-        <t>Madras</t>
+        <t>Chennai</t>
       </is>
     </nc>
   </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="440" sId="1">
-    <oc r="Q2">
-      <v>444444444</v>
+  <rcc rId="451" sId="4">
+    <oc r="L2" t="inlineStr">
+      <is>
+        <t>CAT</t>
+      </is>
     </oc>
-    <nc r="Q2"/>
-  </rcc>
-  <rcc rId="441" sId="2">
-    <oc r="Q2">
-      <v>55555555555</v>
-    </oc>
-    <nc r="Q2"/>
-  </rcc>
-  <rcc rId="442" sId="3">
-    <oc r="Q2">
-      <v>666666666</v>
-    </oc>
-    <nc r="Q2"/>
-  </rcc>
-  <rcc rId="443" sId="4">
-    <oc r="Q2">
-      <v>7777777777</v>
-    </oc>
-    <nc r="Q2"/>
-  </rcc>
-  <rcv guid="{DE6E5057-7951-4F1C-915C-5C0EFDC06FD2}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="444" sId="1" odxf="1" numFmtId="4" quotePrefix="1">
-    <oc r="V2">
-      <v>10000</v>
-    </oc>
-    <nc r="V2" t="inlineStr">
+    <nc r="L2" t="inlineStr">
       <is>
-        <t>10000</t>
+        <t>India</t>
       </is>
     </nc>
-    <odxf/>
   </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="445" sId="2" odxf="1" numFmtId="4" quotePrefix="1">
-    <oc r="V2">
-      <v>20000</v>
+  <rcc rId="452" sId="2">
+    <oc r="L2" t="inlineStr">
+      <is>
+        <t>A</t>
+      </is>
     </oc>
-    <nc r="V2" t="inlineStr">
+    <nc r="L2" t="inlineStr">
       <is>
-        <t>20000</t>
+        <t>India</t>
       </is>
     </nc>
-    <odxf/>
   </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="446" sId="3" odxf="1" numFmtId="4" quotePrefix="1">
-    <oc r="V2">
-      <v>30000</v>
+  <rcc rId="453" sId="2">
+    <oc r="J2" t="inlineStr">
+      <is>
+        <t>Madras</t>
+      </is>
     </oc>
-    <nc r="V2" t="inlineStr">
+    <nc r="J2" t="inlineStr">
       <is>
-        <t>30000</t>
+        <t>Chennai</t>
       </is>
     </nc>
-    <odxf/>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="447" sId="4" odxf="1" numFmtId="4" quotePrefix="1">
-    <oc r="V2">
-      <v>40000</v>
-    </oc>
-    <nc r="V2" t="inlineStr">
-      <is>
-        <t>40000</t>
-      </is>
-    </nc>
-    <odxf/>
   </rcc>
 </revisions>
 </file>
@@ -1012,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -1221,8 +1114,8 @@
       <c r="AY1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" t="s" s="2">
-        <v>129</v>
+      <c r="AZ1" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
@@ -1242,7 +1135,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>72</v>
@@ -1265,14 +1158,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O2" t="s" s="2">
+      <c r="N2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>44</v>
@@ -1287,7 +1180,7 @@
         <v>11111111111</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>45</v>
@@ -1296,25 +1189,25 @@
         <v>49</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" t="s" s="2">
-        <v>135</v>
+      <c r="AC2" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>71</v>
@@ -1329,7 +1222,7 @@
         <v>70</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>50</v>
@@ -1341,35 +1234,35 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ2" t="s" s="2">
-        <v>153</v>
+        <v>115</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{DE6E5057-7951-4F1C-915C-5C0EFDC06FD2}" topLeftCell="I1">
+      <selection activeCell="Q2" sqref="Q2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="H1">
       <selection activeCell="V2" sqref="V2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{DE6E5057-7951-4F1C-915C-5C0EFDC06FD2}" topLeftCell="I1">
-      <selection activeCell="Q2" sqref="Q2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1388,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,8 +1491,8 @@
       <c r="AY1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" t="s" s="2">
-        <v>129</v>
+      <c r="AZ1" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
@@ -1619,7 +1512,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>83</v>
@@ -1631,25 +1524,25 @@
         <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O2" t="s" s="2">
+      <c r="N2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>44</v>
@@ -1658,40 +1551,40 @@
         <v>49</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U2" s="2">
         <v>22222222222</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="Z2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" t="s" s="2">
-        <v>135</v>
+      <c r="AC2" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>74</v>
@@ -1715,35 +1608,35 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AZ2" t="s" s="2">
-        <v>154</v>
+        <v>116</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{DE6E5057-7951-4F1C-915C-5C0EFDC06FD2}" topLeftCell="J1">
+      <selection activeCell="Q2" sqref="Q2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="J1">
       <selection activeCell="U2" sqref="U2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{DE6E5057-7951-4F1C-915C-5C0EFDC06FD2}" topLeftCell="J1">
-      <selection activeCell="Q2" sqref="Q2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1756,7 +1649,7 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,8 +1858,8 @@
       <c r="AY1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" t="s" s="2">
-        <v>129</v>
+      <c r="AZ1" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
@@ -1986,7 +1879,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>84</v>
@@ -1995,34 +1888,34 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O2" t="s" s="2">
+      <c r="N2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>76</v>
@@ -2031,34 +1924,34 @@
         <v>33333333333</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" t="s" s="2">
-        <v>135</v>
+      <c r="AC2" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -2082,35 +1975,35 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ2" t="s" s="2">
-        <v>155</v>
+        <v>117</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{DE6E5057-7951-4F1C-915C-5C0EFDC06FD2}" topLeftCell="H1">
+      <selection activeCell="Q2" sqref="Q2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="H1">
       <selection activeCell="V2" sqref="V2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{DE6E5057-7951-4F1C-915C-5C0EFDC06FD2}" topLeftCell="H1">
-      <selection activeCell="Q2" sqref="Q2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -2122,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,8 +2225,8 @@
       <c r="AY1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" t="s" s="2">
-        <v>129</v>
+      <c r="AZ1" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
@@ -2353,10 +2246,10 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
@@ -2365,67 +2258,67 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O2" t="s" s="2">
+      <c r="P2" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U2" s="2">
         <v>44444444444</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" t="s" s="2">
-        <v>135</v>
+      <c r="AC2" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>71</v>
@@ -2449,35 +2342,35 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ2" t="s" s="2">
-        <v>155</v>
+        <v>123</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{DE6E5057-7951-4F1C-915C-5C0EFDC06FD2}" topLeftCell="H1">
+      <selection activeCell="Q2" sqref="Q2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="H1">
       <selection activeCell="U2" sqref="U2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{DE6E5057-7951-4F1C-915C-5C0EFDC06FD2}" topLeftCell="H1">
-      <selection activeCell="Q2" sqref="Q2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
